--- a/dsa questions babbar.xlsx
+++ b/dsa questions babbar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB3CA58-3394-4067-ADE1-0A083631156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E40683-FFB4-4360-AB08-CE876B896E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="official" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="491">
   <si>
     <t>Array</t>
   </si>
@@ -1499,9 +1499,6 @@
   </si>
   <si>
     <t>String ( 04/02/2024 =&gt; /02/2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1785,6 +1782,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1799,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1877,21 +1880,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1901,9 +1889,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1916,21 +1901,7 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1972,6 +1943,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2260,8 +2256,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC485"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -2300,8 +2296,8 @@
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:4" s="63" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="63" t="s">
         <v>485</v>
       </c>
     </row>
@@ -2444,7 +2440,7 @@
       <c r="B16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="17"/>
@@ -2746,8 +2742,8 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="76" t="s">
+    <row r="44" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="64" t="s">
         <v>489</v>
       </c>
     </row>
@@ -2811,29 +2807,29 @@
       </c>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="63">
+    <row r="50" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="51">
         <v>6</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="53" t="s">
         <v>488</v>
       </c>
-      <c r="D50" s="66"/>
-    </row>
-    <row r="51" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="63">
+      <c r="D50" s="54"/>
+    </row>
+    <row r="51" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="51">
         <v>7</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="54"/>
     </row>
     <row r="52" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="13">
@@ -2876,8 +2872,8 @@
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45"/>
-    <row r="57" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="77" t="s">
+    <row r="57" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="65" t="s">
         <v>490</v>
       </c>
     </row>
@@ -2953,17 +2949,17 @@
       </c>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" s="73" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="69">
+    <row r="64" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="57">
         <v>7</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B64" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="72"/>
+      <c r="D64" s="60"/>
     </row>
     <row r="65" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13">
@@ -2977,17 +2973,17 @@
       </c>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="1:4" s="73" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="69">
+    <row r="66" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="57">
         <v>9</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="72"/>
+      <c r="D66" s="60"/>
     </row>
     <row r="67" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="13">
@@ -3213,27 +3209,29 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="9">
+    <row r="86" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="13">
         <v>29</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="9">
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="13">
         <v>30</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="9">
@@ -7862,8 +7860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F90590-BFBE-4C68-82AE-A25E3E5CE8C8}">
   <dimension ref="A1:AA1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -7876,4086 +7874,4093 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="72" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="74" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="45">
+      <c r="C3" s="41"/>
+    </row>
+    <row r="4" spans="1:3" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="45">
+    <row r="5" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="45">
+    <row r="6" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="45">
+    <row r="7" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="39">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="45">
+    <row r="8" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="39">
         <v>5</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="41" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="45">
+    <row r="9" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="39">
         <v>6</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="45">
+    <row r="10" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="39">
         <v>7</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="45">
+    <row r="11" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="39">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="45">
+    <row r="12" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="39">
         <v>9</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="45">
+    <row r="13" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="39">
         <v>10</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="45">
+    <row r="14" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="39">
         <v>11</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="45">
+    <row r="15" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="39">
         <v>12</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="45">
+    <row r="16" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="45">
+    <row r="17" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="39">
         <v>14</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="45">
+    <row r="18" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="39">
         <v>15</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="45">
+    <row r="19" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="39">
         <v>16</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="45">
+    <row r="20" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="39">
         <v>17</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="45">
+    <row r="21" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="39">
         <v>18</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="45">
+    <row r="22" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="39">
         <v>19</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="45">
+    <row r="23" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="39">
         <v>20</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="45">
+    <row r="24" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="39">
         <v>21</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="45">
+    <row r="25" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="39">
         <v>22</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="45">
+    <row r="26" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="39">
         <v>23</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="45">
+    <row r="27" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="39">
         <v>24</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="45">
+    <row r="28" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="39">
         <v>25</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="48" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="45">
+    <row r="29" spans="1:3" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="39">
         <v>26</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="45">
+    <row r="30" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="39">
         <v>27</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="45">
+    <row r="31" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="39">
         <v>28</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="45">
+    <row r="32" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="39">
         <v>29</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="41" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="45">
+    <row r="33" spans="1:26" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="39">
         <v>30</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="45">
+    <row r="34" spans="1:26" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="39">
         <v>31</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="45">
+    <row r="35" spans="1:26" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="39">
         <v>32</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="45">
+    <row r="36" spans="1:26" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="39">
         <v>33</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="45">
+    <row r="37" spans="1:26" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="39">
         <v>34</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="45">
+    <row r="38" spans="1:26" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="39">
         <v>35</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="48" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="45">
+    <row r="39" spans="1:26" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="39">
         <v>36</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="41" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
+      <c r="B40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
     </row>
     <row r="41" spans="1:26" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-    </row>
-    <row r="42" spans="1:26" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="50">
+      <c r="B41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+    </row>
+    <row r="42" spans="1:26" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="39">
         <v>1</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="50">
+    <row r="43" spans="1:26" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="39">
         <v>2</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="41" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="50">
+    <row r="44" spans="1:26" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="39">
         <v>3</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="50">
+    <row r="45" spans="1:26" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="39">
         <v>4</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="50">
+    <row r="46" spans="1:26" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="39">
         <v>5</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="50">
+    <row r="47" spans="1:26" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="39">
         <v>6</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="50">
+    <row r="48" spans="1:26" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="39">
         <v>7</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="50">
+    <row r="49" spans="1:3" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="39">
         <v>8</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="50">
+    <row r="50" spans="1:3" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="39">
         <v>9</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="53" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="50">
+    <row r="51" spans="1:3" s="44" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="39">
         <v>10</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="40"/>
-    </row>
-    <row r="54" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="54">
+      <c r="B53" s="35"/>
+    </row>
+    <row r="54" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="39">
         <v>1</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="54">
+    <row r="55" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="39">
         <v>2</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="54">
+    <row r="56" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="39">
         <v>3</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="54">
+    <row r="57" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="39">
         <v>4</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="54">
+    <row r="58" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="39">
         <v>5</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="54">
+    <row r="59" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="39">
         <v>6</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="54">
+    <row r="60" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="39">
         <v>7</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="54">
+    <row r="61" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="39">
         <v>8</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="54">
+    <row r="62" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="39">
         <v>9</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="54">
+    <row r="63" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="39">
         <v>10</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="54">
+    <row r="64" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="39">
         <v>11</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="54">
+    <row r="65" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="39">
         <v>12</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="41" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="54">
+    <row r="66" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="39">
         <v>13</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="54">
+    <row r="67" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="39">
         <v>14</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="54">
+    <row r="68" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="39">
         <v>15</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="54">
+    <row r="69" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="39">
         <v>16</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="54">
+    <row r="70" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="39">
         <v>17</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="54">
+    <row r="71" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="39">
         <v>18</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="41" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="54">
+    <row r="72" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="39">
         <v>19</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="54">
+    <row r="73" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="39">
         <v>20</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="54">
+    <row r="74" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="39">
         <v>21</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="54">
+    <row r="75" spans="1:3" s="45" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="39">
+        <v>23</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="45" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="39">
+        <v>24</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="45" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="39">
+        <v>25</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="39">
+        <v>26</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="39">
+        <v>27</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="39">
+        <v>28</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="39">
+        <v>29</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="39">
+        <v>30</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="39">
+        <v>31</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="13">
+        <v>32</v>
+      </c>
+      <c r="B84" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="13">
+        <v>33</v>
+      </c>
+      <c r="B85" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="13">
+        <v>34</v>
+      </c>
+      <c r="B86" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="13">
+        <v>35</v>
+      </c>
+      <c r="B87" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="13">
+        <v>36</v>
+      </c>
+      <c r="B88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="13">
+        <v>37</v>
+      </c>
+      <c r="B89" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="13">
+        <v>38</v>
+      </c>
+      <c r="B90" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="13">
+        <v>39</v>
+      </c>
+      <c r="B91" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="13">
+        <v>40</v>
+      </c>
+      <c r="B92" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="13">
+        <v>41</v>
+      </c>
+      <c r="B93" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="13">
+        <v>42</v>
+      </c>
+      <c r="B94" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="13"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="68"/>
+    </row>
+    <row r="96" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="35"/>
+    </row>
+    <row r="98" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="46">
+        <v>1</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="46">
+        <v>2</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="46">
+        <v>3</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="46">
+        <v>4</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="46">
+        <v>5</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="46">
+        <v>6</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="46">
+        <v>7</v>
+      </c>
+      <c r="B104" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="46">
+        <v>8</v>
+      </c>
+      <c r="B105" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="46">
+        <v>9</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="46">
+        <v>10</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="46">
+        <v>11</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="46">
+        <v>12</v>
+      </c>
+      <c r="B109" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="46">
+        <v>13</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="46">
+        <v>14</v>
+      </c>
+      <c r="B111" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="46">
+        <v>15</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="46">
+        <v>16</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="46">
+        <v>17</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="46">
+        <v>18</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="46">
+        <v>19</v>
+      </c>
+      <c r="B116" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="46">
+        <v>20</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="46">
+        <v>21</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C118" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="46">
         <v>22</v>
       </c>
-      <c r="B75" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="56" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="54">
+      <c r="B119" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="46">
         <v>23</v>
       </c>
-      <c r="B76" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="56" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="54">
+      <c r="B120" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="46">
         <v>24</v>
       </c>
-      <c r="B77" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="54">
+      <c r="B121" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="46">
         <v>25</v>
       </c>
-      <c r="B78" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="54">
+      <c r="B122" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="46">
         <v>26</v>
       </c>
-      <c r="B79" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="54">
+      <c r="B123" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" s="48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="46">
         <v>27</v>
       </c>
-      <c r="B80" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="54">
+      <c r="B124" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="46">
         <v>28</v>
       </c>
-      <c r="B81" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="54">
+      <c r="B125" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="46">
         <v>29</v>
       </c>
-      <c r="B82" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="54">
+      <c r="B126" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="46">
         <v>30</v>
       </c>
-      <c r="B83" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="54">
+      <c r="B127" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="46">
         <v>31</v>
       </c>
-      <c r="B84" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="54">
+      <c r="B128" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="46">
         <v>32</v>
       </c>
-      <c r="B85" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="54">
+      <c r="B129" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="46">
         <v>33</v>
       </c>
-      <c r="B86" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="54">
+      <c r="B130" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="46">
         <v>34</v>
       </c>
-      <c r="B87" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="54">
+      <c r="B131" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="48" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="46">
         <v>35</v>
       </c>
-      <c r="B88" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="54">
+      <c r="B132" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="46">
         <v>36</v>
       </c>
-      <c r="B89" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="54">
-        <v>37</v>
-      </c>
-      <c r="B90" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="54">
-        <v>38</v>
-      </c>
-      <c r="B91" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="54">
-        <v>39</v>
-      </c>
-      <c r="B92" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="54">
-        <v>40</v>
-      </c>
-      <c r="B93" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="54">
-        <v>41</v>
-      </c>
-      <c r="B94" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="57" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="54">
-        <v>42</v>
-      </c>
-      <c r="B95" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="40"/>
-    </row>
-    <row r="99" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="58">
+      <c r="B133" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="49" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="46"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="9">
         <v>1</v>
       </c>
-      <c r="B99" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="58">
-        <v>2</v>
-      </c>
-      <c r="B100" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="60" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="58">
-        <v>3</v>
-      </c>
-      <c r="B101" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="58">
-        <v>4</v>
-      </c>
-      <c r="B102" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="58">
-        <v>5</v>
-      </c>
-      <c r="B103" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="58">
-        <v>6</v>
-      </c>
-      <c r="B104" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C104" s="60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="58">
-        <v>7</v>
-      </c>
-      <c r="B105" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" s="60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="58">
-        <v>8</v>
-      </c>
-      <c r="B106" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="58">
-        <v>9</v>
-      </c>
-      <c r="B107" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" s="60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="58">
-        <v>10</v>
-      </c>
-      <c r="B108" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="58">
-        <v>11</v>
-      </c>
-      <c r="B109" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="58">
-        <v>12</v>
-      </c>
-      <c r="B110" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="58">
-        <v>13</v>
-      </c>
-      <c r="B111" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C111" s="60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="58">
-        <v>14</v>
-      </c>
-      <c r="B112" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="58">
-        <v>15</v>
-      </c>
-      <c r="B113" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C113" s="60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="58">
-        <v>16</v>
-      </c>
-      <c r="B114" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114" s="60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="58">
-        <v>17</v>
-      </c>
-      <c r="B115" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" s="60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="58">
-        <v>18</v>
-      </c>
-      <c r="B116" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" s="60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="58">
-        <v>19</v>
-      </c>
-      <c r="B117" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C117" s="60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="58">
-        <v>20</v>
-      </c>
-      <c r="B118" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C118" s="60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="58">
-        <v>21</v>
-      </c>
-      <c r="B119" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119" s="60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="58">
-        <v>22</v>
-      </c>
-      <c r="B120" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" s="60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="58">
-        <v>23</v>
-      </c>
-      <c r="B121" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="58">
-        <v>24</v>
-      </c>
-      <c r="B122" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C122" s="60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="58">
-        <v>25</v>
-      </c>
-      <c r="B123" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C123" s="60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="58">
-        <v>26</v>
-      </c>
-      <c r="B124" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" s="60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="58">
-        <v>27</v>
-      </c>
-      <c r="B125" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C125" s="60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="58">
-        <v>28</v>
-      </c>
-      <c r="B126" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C126" s="60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="58">
-        <v>29</v>
-      </c>
-      <c r="B127" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C127" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="58">
-        <v>30</v>
-      </c>
-      <c r="B128" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" s="60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="58">
-        <v>31</v>
-      </c>
-      <c r="B129" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C129" s="60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="58">
-        <v>32</v>
-      </c>
-      <c r="B130" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" s="60" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="58">
-        <v>33</v>
-      </c>
-      <c r="B131" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" s="60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="58">
-        <v>34</v>
-      </c>
-      <c r="B132" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" s="60" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="58">
-        <v>35</v>
-      </c>
-      <c r="B133" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" s="60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="58">
-        <v>36</v>
-      </c>
-      <c r="B134" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C134" s="60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" s="61" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="58"/>
-      <c r="B135" s="62"/>
-      <c r="C135" s="60" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="B136" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="137" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="9">
-        <v>1</v>
-      </c>
-      <c r="B137" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="9">
-        <v>2</v>
-      </c>
-      <c r="B138" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="9">
-        <v>3</v>
-      </c>
-      <c r="B139" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="9">
-        <v>4</v>
-      </c>
-      <c r="B140" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="9">
-        <v>5</v>
-      </c>
-      <c r="B141" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="9">
-        <v>6</v>
-      </c>
-      <c r="B142" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="9">
-        <v>7</v>
-      </c>
-      <c r="B143" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="9">
-        <v>8</v>
-      </c>
-      <c r="B144" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="9">
-        <v>9</v>
-      </c>
-      <c r="B145" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="9">
-        <v>10</v>
-      </c>
-      <c r="B146" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="9">
-        <v>11</v>
-      </c>
-      <c r="B147" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="9">
-        <v>12</v>
-      </c>
-      <c r="B148" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="9">
-        <v>13</v>
-      </c>
-      <c r="B149" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="9">
-        <v>14</v>
-      </c>
-      <c r="B150" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="9">
-        <v>15</v>
-      </c>
-      <c r="B151" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="9">
-        <v>16</v>
-      </c>
-      <c r="B152" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="9">
-        <v>17</v>
-      </c>
-      <c r="B153" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="9">
-        <v>18</v>
-      </c>
-      <c r="B154" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="9">
-        <v>19</v>
-      </c>
-      <c r="B155" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="9">
-        <v>20</v>
-      </c>
-      <c r="B156" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="9">
-        <v>21</v>
-      </c>
-      <c r="B157" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="9">
-        <v>22</v>
-      </c>
-      <c r="B158" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="9">
-        <v>23</v>
-      </c>
-      <c r="B159" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="9">
-        <v>24</v>
-      </c>
-      <c r="B160" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="9">
-        <v>25</v>
-      </c>
-      <c r="B161" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="9">
-        <v>26</v>
-      </c>
-      <c r="B162" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C162" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="9">
-        <v>27</v>
-      </c>
-      <c r="B163" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="9">
-        <v>28</v>
-      </c>
-      <c r="B164" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B164" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="9">
-        <v>29</v>
-      </c>
-      <c r="B165" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="9">
-        <v>30</v>
-      </c>
-      <c r="B166" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="9">
-        <v>31</v>
-      </c>
-      <c r="B167" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="9">
-        <v>32</v>
-      </c>
-      <c r="B168" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B168" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="9">
-        <v>33</v>
-      </c>
-      <c r="B169" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="9">
-        <v>34</v>
-      </c>
-      <c r="B170" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="9">
-        <v>35</v>
-      </c>
-      <c r="B171" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B171" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="9">
-        <v>36</v>
-      </c>
-      <c r="B172" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C172" s="34" t="s">
         <v>165</v>
       </c>
     </row>
+    <row r="172" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="173" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A174" s="9">
+        <v>1</v>
+      </c>
+      <c r="B174" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="175" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="9">
-        <v>1</v>
-      </c>
-      <c r="B175" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="9">
-        <v>2</v>
-      </c>
-      <c r="B176" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="9">
-        <v>3</v>
-      </c>
-      <c r="B177" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="9">
-        <v>4</v>
-      </c>
-      <c r="B178" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="9">
-        <v>5</v>
-      </c>
-      <c r="B179" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="9">
-        <v>6</v>
-      </c>
-      <c r="B180" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="9">
-        <v>7</v>
-      </c>
-      <c r="B181" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="9">
-        <v>8</v>
-      </c>
-      <c r="B182" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="9">
-        <v>9</v>
-      </c>
-      <c r="B183" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C183" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="9">
-        <v>10</v>
-      </c>
-      <c r="B184" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C184" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="9">
-        <v>11</v>
-      </c>
-      <c r="B185" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C185" s="34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="9">
-        <v>12</v>
-      </c>
-      <c r="B186" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="9">
-        <v>13</v>
-      </c>
-      <c r="B187" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C187" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="9">
-        <v>14</v>
-      </c>
-      <c r="B188" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C188" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="9">
-        <v>15</v>
-      </c>
-      <c r="B189" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C189" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="9">
-        <v>16</v>
-      </c>
-      <c r="B190" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C190" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="9">
-        <v>17</v>
-      </c>
-      <c r="B191" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C191" s="34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="9">
-        <v>18</v>
-      </c>
-      <c r="B192" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C192" s="34" t="s">
-        <v>184</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="9">
-        <v>19</v>
-      </c>
-      <c r="B193" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C193" s="34" t="s">
-        <v>477</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="9">
-        <v>20</v>
-      </c>
-      <c r="B194" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C194" s="34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="9">
-        <v>21</v>
-      </c>
-      <c r="B195" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C195" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="9">
-        <v>22</v>
-      </c>
-      <c r="B196" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="9">
-        <v>23</v>
-      </c>
-      <c r="B197" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C197" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="9">
-        <v>24</v>
-      </c>
-      <c r="B198" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B198" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C198" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="9">
-        <v>25</v>
-      </c>
-      <c r="B199" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C199" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="9">
-        <v>26</v>
-      </c>
-      <c r="B200" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C200" s="34" t="s">
-        <v>192</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="9">
-        <v>27</v>
-      </c>
-      <c r="B201" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C201" s="34" t="s">
-        <v>478</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="9">
-        <v>28</v>
-      </c>
-      <c r="B202" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B202" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C202" s="34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="9">
-        <v>29</v>
-      </c>
-      <c r="B203" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B203" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C203" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="9">
-        <v>30</v>
-      </c>
-      <c r="B204" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B204" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C204" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="9">
-        <v>31</v>
-      </c>
-      <c r="B205" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B205" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C205" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="9">
-        <v>32</v>
-      </c>
-      <c r="B206" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B206" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C206" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="9">
-        <v>33</v>
-      </c>
-      <c r="B207" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C207" s="34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="9">
-        <v>34</v>
-      </c>
-      <c r="B208" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="35" t="s">
         <v>166</v>
       </c>
       <c r="C208" s="34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A209" s="9">
-        <v>35</v>
-      </c>
-      <c r="B209" s="40" t="s">
-        <v>166</v>
-      </c>
+      <c r="B209" s="35"/>
       <c r="C209" s="34" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B210" s="40"/>
-      <c r="C210" s="34" t="s">
-        <v>479</v>
-      </c>
+      <c r="B210" s="35"/>
     </row>
     <row r="211" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B211" s="40"/>
+      <c r="A211" s="9">
+        <v>1</v>
+      </c>
+      <c r="B211" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="212" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="9">
-        <v>1</v>
-      </c>
-      <c r="B212" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C212" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="9">
-        <v>2</v>
-      </c>
-      <c r="B213" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C213" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="9">
-        <v>3</v>
-      </c>
-      <c r="B214" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C214" s="34" t="s">
-        <v>205</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="9">
-        <v>4</v>
-      </c>
-      <c r="B215" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C215" s="34" t="s">
-        <v>480</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="9">
-        <v>5</v>
-      </c>
-      <c r="B216" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C216" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="9">
-        <v>6</v>
-      </c>
-      <c r="B217" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C217" s="34" t="s">
-        <v>208</v>
+      <c r="C217" s="38" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="9">
-        <v>7</v>
-      </c>
-      <c r="B218" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C218" s="43" t="s">
-        <v>209</v>
+      <c r="C218" s="34" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="9">
-        <v>8</v>
-      </c>
-      <c r="B219" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C219" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="9">
-        <v>9</v>
-      </c>
-      <c r="B220" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C220" s="34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="9">
-        <v>10</v>
-      </c>
-      <c r="B221" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C221" s="34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="9">
-        <v>11</v>
-      </c>
-      <c r="B222" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C222" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="9">
-        <v>12</v>
-      </c>
-      <c r="B223" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C223" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="9">
-        <v>13</v>
-      </c>
-      <c r="B224" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C224" s="34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="9">
-        <v>14</v>
-      </c>
-      <c r="B225" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C225" s="34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="9">
-        <v>15</v>
-      </c>
-      <c r="B226" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B226" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C226" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="9">
-        <v>16</v>
-      </c>
-      <c r="B227" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C227" s="34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="9">
-        <v>17</v>
-      </c>
-      <c r="B228" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C228" s="34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="9">
-        <v>18</v>
-      </c>
-      <c r="B229" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C229" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="9">
-        <v>19</v>
-      </c>
-      <c r="B230" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C230" s="34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="9">
-        <v>20</v>
-      </c>
-      <c r="B231" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B231" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="9">
-        <v>21</v>
-      </c>
-      <c r="B232" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C232" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A233" s="9">
-        <v>22</v>
-      </c>
-      <c r="B233" s="40" t="s">
-        <v>202</v>
-      </c>
       <c r="C233" s="34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C234" s="34" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="9">
+        <v>1</v>
+      </c>
+      <c r="B235" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
     <row r="236" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="9">
-        <v>1</v>
-      </c>
-      <c r="B236" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C236" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="9">
-        <v>2</v>
-      </c>
-      <c r="B237" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C237" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="9">
-        <v>3</v>
-      </c>
-      <c r="B238" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C238" s="34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="9">
-        <v>4</v>
-      </c>
-      <c r="B239" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="9">
-        <v>5</v>
-      </c>
-      <c r="B240" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C240" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="9">
-        <v>6</v>
-      </c>
-      <c r="B241" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C241" s="34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="9">
-        <v>7</v>
-      </c>
-      <c r="B242" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C242" s="34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="9">
-        <v>8</v>
-      </c>
-      <c r="B243" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C243" s="34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="9">
-        <v>9</v>
-      </c>
-      <c r="B244" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C244" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="9">
-        <v>10</v>
-      </c>
-      <c r="B245" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C245" s="34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="9">
-        <v>11</v>
-      </c>
-      <c r="B246" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C246" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="9">
-        <v>12</v>
-      </c>
-      <c r="B247" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C247" s="34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="9">
-        <v>13</v>
-      </c>
-      <c r="B248" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C248" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="9">
-        <v>14</v>
-      </c>
-      <c r="B249" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C249" s="34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="9">
-        <v>15</v>
-      </c>
-      <c r="B250" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C250" s="34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="9">
-        <v>16</v>
-      </c>
-      <c r="B251" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C251" s="34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="9">
-        <v>17</v>
-      </c>
-      <c r="B252" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B252" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C252" s="34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="9">
-        <v>18</v>
-      </c>
-      <c r="B253" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C253" s="34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="9">
-        <v>19</v>
-      </c>
-      <c r="B254" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C254" s="34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="9">
-        <v>20</v>
-      </c>
-      <c r="B255" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C255" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="9">
-        <v>21</v>
-      </c>
-      <c r="B256" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C256" s="34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="9">
-        <v>22</v>
-      </c>
-      <c r="B257" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C257" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="9">
-        <v>23</v>
-      </c>
-      <c r="B258" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C258" s="34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="9">
-        <v>24</v>
-      </c>
-      <c r="B259" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B259" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C259" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="9">
-        <v>25</v>
-      </c>
-      <c r="B260" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C260" s="34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="9">
-        <v>26</v>
-      </c>
-      <c r="B261" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B261" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C261" s="34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="9">
-        <v>27</v>
-      </c>
-      <c r="B262" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B262" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C262" s="34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="9">
-        <v>28</v>
-      </c>
-      <c r="B263" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B263" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C263" s="34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="9">
-        <v>29</v>
-      </c>
-      <c r="B264" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B264" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="9">
-        <v>30</v>
-      </c>
-      <c r="B265" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C265" s="34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="9">
-        <v>31</v>
-      </c>
-      <c r="B266" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B266" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C266" s="34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="9">
-        <v>32</v>
-      </c>
-      <c r="B267" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B267" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C267" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="9">
-        <v>33</v>
-      </c>
-      <c r="B268" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B268" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C268" s="34" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="9">
-        <v>34</v>
-      </c>
-      <c r="B269" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B269" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C269" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A270" s="9">
-        <v>35</v>
-      </c>
-      <c r="B270" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C270" s="34" t="s">
         <v>259</v>
       </c>
     </row>
+    <row r="270" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="271" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A272" s="9">
+        <v>1</v>
+      </c>
+      <c r="B272" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C272" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
     <row r="273" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="9">
-        <v>1</v>
-      </c>
-      <c r="B273" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C273" s="34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="9">
-        <v>2</v>
-      </c>
-      <c r="B274" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C274" s="34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="9">
-        <v>3</v>
-      </c>
-      <c r="B275" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C275" s="34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="9">
-        <v>4</v>
-      </c>
-      <c r="B276" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C276" s="34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="9">
-        <v>5</v>
-      </c>
-      <c r="B277" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C277" s="34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="9">
-        <v>6</v>
-      </c>
-      <c r="B278" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C278" s="34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="9">
-        <v>7</v>
-      </c>
-      <c r="B279" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C279" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="9">
-        <v>8</v>
-      </c>
-      <c r="B280" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C280" s="34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="9">
-        <v>9</v>
-      </c>
-      <c r="B281" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C281" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="9">
-        <v>10</v>
-      </c>
-      <c r="B282" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C282" s="34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="9">
-        <v>11</v>
-      </c>
-      <c r="B283" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="9">
-        <v>12</v>
-      </c>
-      <c r="B284" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C284" s="34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="9">
-        <v>13</v>
-      </c>
-      <c r="B285" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C285" s="34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="9">
-        <v>14</v>
-      </c>
-      <c r="B286" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C286" s="34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="9">
-        <v>15</v>
-      </c>
-      <c r="B287" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B287" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C287" s="34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="9">
-        <v>16</v>
-      </c>
-      <c r="B288" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B288" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C288" s="34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="9">
-        <v>17</v>
-      </c>
-      <c r="B289" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C289" s="34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="9">
-        <v>18</v>
-      </c>
-      <c r="B290" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B290" s="35" t="s">
         <v>260</v>
       </c>
       <c r="C290" s="34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A291" s="9">
-        <v>19</v>
-      </c>
-      <c r="B291" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="C291" s="34" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="291" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="292" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A293" s="9">
+        <v>1</v>
+      </c>
+      <c r="B293" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C293" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
     <row r="294" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="9">
-        <v>1</v>
-      </c>
-      <c r="B294" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C294" s="34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="9">
-        <v>2</v>
-      </c>
-      <c r="B295" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C295" s="34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="9">
-        <v>3</v>
-      </c>
-      <c r="B296" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C296" s="34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="9">
-        <v>4</v>
-      </c>
-      <c r="B297" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C297" s="34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="9">
-        <v>5</v>
-      </c>
-      <c r="B298" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C298" s="34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="9">
-        <v>6</v>
-      </c>
-      <c r="B299" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C299" s="34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="9">
-        <v>7</v>
-      </c>
-      <c r="B300" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B300" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C300" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="9">
-        <v>8</v>
-      </c>
-      <c r="B301" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B301" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C301" s="34" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="9">
-        <v>9</v>
-      </c>
-      <c r="B302" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C302" s="34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="9">
-        <v>10</v>
-      </c>
-      <c r="B303" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C303" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="9">
-        <v>11</v>
-      </c>
-      <c r="B304" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C304" s="34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="9">
-        <v>12</v>
-      </c>
-      <c r="B305" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C305" s="34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="9">
-        <v>13</v>
-      </c>
-      <c r="B306" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C306" s="34" t="s">
-        <v>293</v>
+      <c r="C306" s="38" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="9">
-        <v>14</v>
-      </c>
-      <c r="B307" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C307" s="43" t="s">
-        <v>294</v>
+      <c r="C307" s="34" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="9">
-        <v>15</v>
-      </c>
-      <c r="B308" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C308" s="34" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="9">
-        <v>16</v>
-      </c>
-      <c r="B309" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B309" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C309" s="34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="9">
-        <v>17</v>
-      </c>
-      <c r="B310" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C310" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="9">
-        <v>18</v>
-      </c>
-      <c r="B311" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B311" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C311" s="34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="9">
-        <v>19</v>
-      </c>
-      <c r="B312" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B312" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C312" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="9">
-        <v>20</v>
-      </c>
-      <c r="B313" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B313" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C313" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="9">
-        <v>21</v>
-      </c>
-      <c r="B314" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B314" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C314" s="34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="9">
-        <v>22</v>
-      </c>
-      <c r="B315" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B315" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C315" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="9">
-        <v>23</v>
-      </c>
-      <c r="B316" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B316" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C316" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="9">
-        <v>24</v>
-      </c>
-      <c r="B317" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B317" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C317" s="34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="9">
-        <v>25</v>
-      </c>
-      <c r="B318" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B318" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C318" s="34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="9">
-        <v>26</v>
-      </c>
-      <c r="B319" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B319" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C319" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="9">
-        <v>27</v>
-      </c>
-      <c r="B320" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C320" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="9">
-        <v>28</v>
-      </c>
-      <c r="B321" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C321" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="9">
-        <v>29</v>
-      </c>
-      <c r="B322" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B322" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C322" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="9">
-        <v>30</v>
-      </c>
-      <c r="B323" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B323" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C323" s="34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="9">
-        <v>31</v>
-      </c>
-      <c r="B324" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C324" s="34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="9">
-        <v>32</v>
-      </c>
-      <c r="B325" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B325" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C325" s="34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="9">
-        <v>33</v>
-      </c>
-      <c r="B326" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B326" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C326" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="9">
-        <v>34</v>
-      </c>
-      <c r="B327" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B327" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C327" s="34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="9">
-        <v>35</v>
-      </c>
-      <c r="B328" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B328" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C328" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="9">
-        <v>36</v>
-      </c>
-      <c r="B329" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B329" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C329" s="34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="9">
-        <v>37</v>
-      </c>
-      <c r="B330" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B330" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A331" s="9">
-        <v>38</v>
-      </c>
-      <c r="B331" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="C331" s="34" t="s">
         <v>318</v>
       </c>
     </row>
+    <row r="331" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="332" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A333" s="9">
+        <v>1</v>
+      </c>
+      <c r="B333" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C333" s="34" t="s">
+        <v>320</v>
+      </c>
+    </row>
     <row r="334" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="9">
-        <v>1</v>
-      </c>
-      <c r="B334" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B334" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C334" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="9">
-        <v>2</v>
-      </c>
-      <c r="B335" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C335" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="9">
-        <v>3</v>
-      </c>
-      <c r="B336" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C336" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="9">
-        <v>4</v>
-      </c>
-      <c r="B337" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C337" s="34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="9">
-        <v>5</v>
-      </c>
-      <c r="B338" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C338" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="9">
-        <v>6</v>
-      </c>
-      <c r="B339" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C339" s="34" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="9">
-        <v>7</v>
-      </c>
-      <c r="B340" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B340" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C340" s="34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="9">
-        <v>8</v>
-      </c>
-      <c r="B341" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C341" s="34" t="s">
-        <v>327</v>
+      <c r="C341" s="38" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="9">
-        <v>9</v>
-      </c>
-      <c r="B342" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C342" s="43" t="s">
-        <v>328</v>
+      <c r="C342" s="34" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="9">
-        <v>10</v>
-      </c>
-      <c r="B343" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C343" s="34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="9">
-        <v>11</v>
-      </c>
-      <c r="B344" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C344" s="34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="9">
-        <v>12</v>
-      </c>
-      <c r="B345" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B345" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C345" s="34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="9">
-        <v>13</v>
-      </c>
-      <c r="B346" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B346" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C346" s="34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="9">
-        <v>14</v>
-      </c>
-      <c r="B347" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C347" s="34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="9">
-        <v>15</v>
-      </c>
-      <c r="B348" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B348" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C348" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="9">
-        <v>16</v>
-      </c>
-      <c r="B349" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B349" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C349" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="9">
-        <v>17</v>
-      </c>
-      <c r="B350" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="35" t="s">
         <v>319</v>
       </c>
       <c r="C350" s="34" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A351" s="9">
-        <v>18</v>
-      </c>
-      <c r="B351" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="C351" s="34" t="s">
         <v>337</v>
       </c>
     </row>
+    <row r="351" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="352" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A353" s="9">
+        <v>1</v>
+      </c>
+      <c r="B353" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C353" s="34" t="s">
+        <v>339</v>
+      </c>
+    </row>
     <row r="354" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="9">
-        <v>1</v>
-      </c>
-      <c r="B354" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B354" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C354" s="34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="9">
-        <v>2</v>
-      </c>
-      <c r="B355" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C355" s="34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="9">
-        <v>3</v>
-      </c>
-      <c r="B356" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C356" s="34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="9">
-        <v>4</v>
-      </c>
-      <c r="B357" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C357" s="34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="9">
-        <v>5</v>
-      </c>
-      <c r="B358" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C358" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="9">
-        <v>6</v>
-      </c>
-      <c r="B359" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C359" s="34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="9">
-        <v>7</v>
-      </c>
-      <c r="B360" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B360" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C360" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="9">
-        <v>8</v>
-      </c>
-      <c r="B361" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C361" s="34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="9">
-        <v>9</v>
-      </c>
-      <c r="B362" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C362" s="34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="9">
-        <v>10</v>
-      </c>
-      <c r="B363" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B363" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C363" s="34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="9">
-        <v>11</v>
-      </c>
-      <c r="B364" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B364" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C364" s="34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="9">
-        <v>12</v>
-      </c>
-      <c r="B365" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B365" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C365" s="34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="9">
-        <v>13</v>
-      </c>
-      <c r="B366" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B366" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C366" s="34" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="9">
-        <v>14</v>
-      </c>
-      <c r="B367" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C367" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="9">
-        <v>15</v>
-      </c>
-      <c r="B368" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C368" s="34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="9">
-        <v>16</v>
-      </c>
-      <c r="B369" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B369" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C369" s="34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="9">
-        <v>17</v>
-      </c>
-      <c r="B370" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C370" s="34" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="9">
-        <v>18</v>
-      </c>
-      <c r="B371" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C371" s="34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="9">
-        <v>19</v>
-      </c>
-      <c r="B372" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B372" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C372" s="34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="9">
-        <v>20</v>
-      </c>
-      <c r="B373" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B373" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C373" s="34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="9">
-        <v>21</v>
-      </c>
-      <c r="B374" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B374" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C374" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="9">
-        <v>22</v>
-      </c>
-      <c r="B375" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B375" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C375" s="34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="9">
-        <v>23</v>
-      </c>
-      <c r="B376" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B376" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C376" s="34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="9">
-        <v>24</v>
-      </c>
-      <c r="B377" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B377" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C377" s="34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="9">
-        <v>25</v>
-      </c>
-      <c r="B378" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B378" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C378" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="9">
-        <v>26</v>
-      </c>
-      <c r="B379" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B379" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C379" s="34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="9">
-        <v>27</v>
-      </c>
-      <c r="B380" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B380" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C380" s="34" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="9">
-        <v>28</v>
-      </c>
-      <c r="B381" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B381" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C381" s="34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="9">
-        <v>29</v>
-      </c>
-      <c r="B382" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B382" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C382" s="34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="9">
-        <v>30</v>
-      </c>
-      <c r="B383" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B383" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C383" s="34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="9">
-        <v>31</v>
-      </c>
-      <c r="B384" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B384" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C384" s="34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="9">
-        <v>32</v>
-      </c>
-      <c r="B385" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C385" s="34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="9">
-        <v>33</v>
-      </c>
-      <c r="B386" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B386" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C386" s="34" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="9">
-        <v>34</v>
-      </c>
-      <c r="B387" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C387" s="34" t="s">
@@ -11964,974 +11969,965 @@
     </row>
     <row r="388" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="9">
-        <v>35</v>
-      </c>
-      <c r="B388" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B388" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C388" s="34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="9">
-        <v>36</v>
-      </c>
-      <c r="B389" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B389" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C389" s="34" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="9">
-        <v>37</v>
-      </c>
-      <c r="B390" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B390" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C390" s="34" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="9">
-        <v>38</v>
-      </c>
-      <c r="B391" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B391" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C391" s="34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="9">
-        <v>39</v>
-      </c>
-      <c r="B392" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B392" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C392" s="34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="9">
-        <v>40</v>
-      </c>
-      <c r="B393" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B393" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C393" s="34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="9">
-        <v>41</v>
-      </c>
-      <c r="B394" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B394" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C394" s="34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="9">
-        <v>42</v>
-      </c>
-      <c r="B395" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B395" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C395" s="34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="9">
-        <v>43</v>
-      </c>
-      <c r="B396" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B396" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C396" s="34" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A397" s="9">
-        <v>44</v>
-      </c>
-      <c r="B397" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C397" s="34" t="s">
         <v>381</v>
       </c>
     </row>
+    <row r="397" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="398" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A399" s="9">
+        <v>1</v>
+      </c>
+      <c r="B399" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C399" s="34" t="s">
+        <v>383</v>
+      </c>
+    </row>
     <row r="400" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="9">
-        <v>1</v>
-      </c>
-      <c r="B400" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B400" s="35" t="s">
         <v>382</v>
       </c>
       <c r="C400" s="34" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="9">
-        <v>2</v>
-      </c>
-      <c r="B401" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B401" s="35" t="s">
         <v>382</v>
       </c>
       <c r="C401" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="9">
-        <v>3</v>
-      </c>
-      <c r="B402" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402" s="35" t="s">
         <v>382</v>
       </c>
       <c r="C402" s="34" t="s">
-        <v>385</v>
+        <v>84</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="9">
-        <v>4</v>
-      </c>
-      <c r="B403" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" s="35" t="s">
         <v>382</v>
       </c>
       <c r="C403" s="34" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="9">
-        <v>5</v>
-      </c>
-      <c r="B404" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" s="35" t="s">
         <v>382</v>
       </c>
       <c r="C404" s="34" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A405" s="9">
-        <v>6</v>
-      </c>
-      <c r="B405" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="C405" s="34" t="s">
         <v>387</v>
       </c>
     </row>
+    <row r="405" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="406" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A407" s="9">
+        <v>1</v>
+      </c>
+      <c r="B407" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="C407" s="34" t="s">
+        <v>389</v>
+      </c>
+    </row>
     <row r="408" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408" s="9">
-        <v>1</v>
-      </c>
-      <c r="B408" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B408" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C408" s="34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="9">
-        <v>2</v>
-      </c>
-      <c r="B409" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B409" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C409" s="34" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410" s="9">
-        <v>3</v>
-      </c>
-      <c r="B410" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C410" s="34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411" s="9">
-        <v>4</v>
-      </c>
-      <c r="B411" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C411" s="34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="9">
-        <v>5</v>
-      </c>
-      <c r="B412" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C412" s="34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A413" s="9">
-        <v>6</v>
-      </c>
-      <c r="B413" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B413" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C413" s="34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414" s="9">
-        <v>7</v>
-      </c>
-      <c r="B414" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B414" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C414" s="34" t="s">
-        <v>395</v>
+        <v>268</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415" s="9">
-        <v>8</v>
-      </c>
-      <c r="B415" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B415" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C415" s="34" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416" s="9">
-        <v>9</v>
-      </c>
-      <c r="B416" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B416" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C416" s="34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="9">
-        <v>10</v>
-      </c>
-      <c r="B417" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B417" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C417" s="34" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418" s="9">
-        <v>11</v>
-      </c>
-      <c r="B418" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B418" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C418" s="34" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419" s="9">
-        <v>12</v>
-      </c>
-      <c r="B419" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B419" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C419" s="34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="9">
-        <v>13</v>
-      </c>
-      <c r="B420" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B420" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C420" s="34" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421" s="9">
-        <v>14</v>
-      </c>
-      <c r="B421" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B421" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C421" s="34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422" s="9">
-        <v>15</v>
-      </c>
-      <c r="B422" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B422" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C422" s="34" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423" s="9">
-        <v>16</v>
-      </c>
-      <c r="B423" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B423" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C423" s="34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424" s="9">
-        <v>17</v>
-      </c>
-      <c r="B424" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B424" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C424" s="34" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425" s="9">
-        <v>18</v>
-      </c>
-      <c r="B425" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B425" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C425" s="34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426" s="9">
-        <v>19</v>
-      </c>
-      <c r="B426" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B426" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C426" s="34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427" s="9">
-        <v>20</v>
-      </c>
-      <c r="B427" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B427" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C427" s="34" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A428" s="9">
-        <v>21</v>
-      </c>
-      <c r="B428" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B428" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C428" s="34" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A429" s="9">
-        <v>22</v>
-      </c>
-      <c r="B429" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B429" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C429" s="34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A430" s="9">
-        <v>23</v>
-      </c>
-      <c r="B430" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B430" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C430" s="34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A431" s="9">
-        <v>24</v>
-      </c>
-      <c r="B431" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B431" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C431" s="34" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A432" s="9">
-        <v>25</v>
-      </c>
-      <c r="B432" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B432" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C432" s="34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A433" s="9">
-        <v>26</v>
-      </c>
-      <c r="B433" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B433" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C433" s="34" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A434" s="9">
-        <v>27</v>
-      </c>
-      <c r="B434" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B434" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C434" s="34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A435" s="9">
-        <v>28</v>
-      </c>
-      <c r="B435" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B435" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C435" s="34" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A436" s="9">
-        <v>29</v>
-      </c>
-      <c r="B436" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B436" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C436" s="34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A437" s="9">
-        <v>30</v>
-      </c>
-      <c r="B437" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B437" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C437" s="34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A438" s="9">
-        <v>31</v>
-      </c>
-      <c r="B438" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B438" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C438" s="34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A439" s="9">
-        <v>32</v>
-      </c>
-      <c r="B439" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B439" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C439" s="34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A440" s="9">
-        <v>33</v>
-      </c>
-      <c r="B440" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B440" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C440" s="34" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A441" s="9">
-        <v>34</v>
-      </c>
-      <c r="B441" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C441" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A442" s="9">
-        <v>35</v>
-      </c>
-      <c r="B442" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B442" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A443" s="9">
-        <v>36</v>
-      </c>
-      <c r="B443" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B443" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C443" s="34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A444" s="9">
-        <v>37</v>
-      </c>
-      <c r="B444" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B444" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C444" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A445" s="9">
-        <v>38</v>
-      </c>
-      <c r="B445" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B445" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C445" s="34" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A446" s="9">
-        <v>39</v>
-      </c>
-      <c r="B446" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B446" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C446" s="34" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A447" s="9">
-        <v>40</v>
-      </c>
-      <c r="B447" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B447" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C447" s="34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A448" s="9">
-        <v>41</v>
-      </c>
-      <c r="B448" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B448" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C448" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A449" s="9">
-        <v>42</v>
-      </c>
-      <c r="B449" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B449" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C449" s="34" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A450" s="9">
-        <v>43</v>
-      </c>
-      <c r="B450" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B450" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A451" s="9">
-        <v>44</v>
-      </c>
-      <c r="B451" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B451" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C451" s="34" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A452" s="9">
-        <v>45</v>
-      </c>
-      <c r="B452" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B452" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C452" s="34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A453" s="9">
-        <v>46</v>
-      </c>
-      <c r="B453" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B453" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C453" s="34" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A454" s="9">
-        <v>47</v>
-      </c>
-      <c r="B454" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B454" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C454" s="34" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A455" s="9">
-        <v>48</v>
-      </c>
-      <c r="B455" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B455" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C455" s="34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A456" s="9">
-        <v>49</v>
-      </c>
-      <c r="B456" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B456" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C456" s="34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A457" s="9">
-        <v>50</v>
-      </c>
-      <c r="B457" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B457" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C457" s="34" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A458" s="9">
-        <v>51</v>
-      </c>
-      <c r="B458" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B458" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C458" s="34" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A459" s="9">
-        <v>52</v>
-      </c>
-      <c r="B459" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B459" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C459" s="34" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A460" s="9">
-        <v>53</v>
-      </c>
-      <c r="B460" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B460" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C460" s="34" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A461" s="9">
-        <v>54</v>
-      </c>
-      <c r="B461" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B461" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C461" s="34" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A462" s="9">
-        <v>55</v>
-      </c>
-      <c r="B462" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B462" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C462" s="34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A463" s="9">
-        <v>56</v>
-      </c>
-      <c r="B463" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B463" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C463" s="34" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A464" s="9">
-        <v>57</v>
-      </c>
-      <c r="B464" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B464" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C464" s="34" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A465" s="9">
-        <v>58</v>
-      </c>
-      <c r="B465" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B465" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C465" s="34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A466" s="9">
-        <v>59</v>
-      </c>
-      <c r="B466" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B466" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C466" s="34" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A467" s="9">
-        <v>60</v>
-      </c>
-      <c r="B467" s="40" t="s">
-        <v>388</v>
-      </c>
       <c r="C467" s="34" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C468" s="34" t="s">
-        <v>482</v>
-      </c>
+      <c r="B468" s="35"/>
     </row>
     <row r="469" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B469" s="40"/>
+      <c r="A469" s="9">
+        <v>1</v>
+      </c>
+      <c r="B469" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C469" s="34" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="470" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A470" s="9">
-        <v>1</v>
-      </c>
-      <c r="B470" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B470" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C470" s="34" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A471" s="9">
-        <v>2</v>
-      </c>
-      <c r="B471" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B471" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C471" s="34" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A472" s="9">
-        <v>3</v>
-      </c>
-      <c r="B472" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C472" s="34" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A473" s="9">
-        <v>4</v>
-      </c>
-      <c r="B473" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C473" s="34" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A474" s="9">
-        <v>5</v>
-      </c>
-      <c r="B474" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C474" s="34" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A475" s="9">
-        <v>6</v>
-      </c>
-      <c r="B475" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C475" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A476" s="9">
-        <v>7</v>
-      </c>
-      <c r="B476" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B476" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C476" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A477" s="9">
-        <v>8</v>
-      </c>
-      <c r="B477" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B477" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C477" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A478" s="9">
-        <v>9</v>
-      </c>
-      <c r="B478" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B478" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C478" s="34" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A479" s="9">
-        <v>10</v>
-      </c>
-      <c r="B479" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="C479" s="34" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" x14ac:dyDescent="0.45"/>
+    <row r="479" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="493" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="494" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="495" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="993" x14ac:dyDescent="0.45"/>
-    <row r="1000" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" x14ac:dyDescent="0.45"/>
+    <row r="992" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1005" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1006" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1007" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1008" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1009" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1010" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1010" x14ac:dyDescent="0.45"/>
     <row r="1011" x14ac:dyDescent="0.45"/>
   </sheetData>
   <hyperlinks>
@@ -13001,388 +12997,387 @@
     <hyperlink ref="C72" r:id="rId64" xr:uid="{68857241-9AD3-40A4-9E72-62F631DE886D}"/>
     <hyperlink ref="C73" r:id="rId65" xr:uid="{B934971A-8628-4A27-8644-071B1E1E96A6}"/>
     <hyperlink ref="C74" r:id="rId66" xr:uid="{A0467436-2558-4569-AE4A-15812A9AAABD}"/>
-    <hyperlink ref="C75" r:id="rId67" display="Count of number of given string in 2D character array" xr:uid="{7FE91559-5A2D-44C0-9776-FC74DE151865}"/>
-    <hyperlink ref="C76" r:id="rId68" xr:uid="{65BD2BF9-D7AC-4740-97F9-3EDF5B029689}"/>
-    <hyperlink ref="C77" r:id="rId69" xr:uid="{837C60AC-D410-49E8-8D29-DD962B7E0302}"/>
-    <hyperlink ref="C78" r:id="rId70" xr:uid="{2D4E7B92-5202-41BD-B7AD-B8CC5B5A06DC}"/>
-    <hyperlink ref="C79" r:id="rId71" xr:uid="{698DBC9D-DC1F-4205-A371-424ADE3330F8}"/>
-    <hyperlink ref="C80" r:id="rId72" xr:uid="{4F5B232C-3552-478B-96DC-2E83ABFC0417}"/>
-    <hyperlink ref="C81" r:id="rId73" xr:uid="{C2E6BCF8-CD88-4D27-9EC4-FF92C11F3A32}"/>
-    <hyperlink ref="C82" r:id="rId74" xr:uid="{C090DF9A-F14A-4878-95F1-1BD9C9F4F53B}"/>
-    <hyperlink ref="C83" r:id="rId75" xr:uid="{A284AD96-81E5-4E9D-B0B2-4E2B7669CD4B}"/>
-    <hyperlink ref="C84" r:id="rId76" xr:uid="{4D1FE05B-23B8-46C9-AD81-4BEA6457967D}"/>
-    <hyperlink ref="C85" r:id="rId77" xr:uid="{F1379B1B-2F74-43B0-B626-FD04D2779F5F}"/>
-    <hyperlink ref="C86" r:id="rId78" xr:uid="{D8E2950C-A426-4888-861B-63FC6E69C77F}"/>
-    <hyperlink ref="C87" r:id="rId79" xr:uid="{13553FA0-40FA-4D28-9F05-218B8954293F}"/>
-    <hyperlink ref="C88" r:id="rId80" xr:uid="{D5A9A22C-E2D0-4D8C-B717-55DB96D49420}"/>
-    <hyperlink ref="C89" r:id="rId81" xr:uid="{CE4EB5D1-B990-4BA8-B0F9-BDF65F78E66D}"/>
-    <hyperlink ref="C90" r:id="rId82" xr:uid="{4345AE5C-08B2-40D3-AC02-4846FE01871C}"/>
-    <hyperlink ref="C91" r:id="rId83" xr:uid="{38FD6C8E-C600-45B5-918E-1002C129CFA2}"/>
-    <hyperlink ref="C92" r:id="rId84" xr:uid="{A977341C-5F4B-453A-B2B9-B623E130F3FF}"/>
-    <hyperlink ref="C93" r:id="rId85" xr:uid="{4CD955EE-A6DA-436F-ADCF-A69D8DF22BD0}"/>
-    <hyperlink ref="C94" r:id="rId86" xr:uid="{744239A4-C9AC-4BB7-9156-DE5549D9DB4E}"/>
-    <hyperlink ref="C95" r:id="rId87" xr:uid="{E2C2F51A-E178-4839-997B-D33538CF2BD3}"/>
-    <hyperlink ref="C99" r:id="rId88" xr:uid="{DA30B03C-8F65-464C-A44F-56CB34F2C26D}"/>
-    <hyperlink ref="C100" r:id="rId89" xr:uid="{FAC8D1B2-49F4-4F03-B29D-194C148C8D71}"/>
-    <hyperlink ref="C101" r:id="rId90" xr:uid="{CC44B576-71E7-4C58-863D-69D57D5DBC20}"/>
-    <hyperlink ref="C102" r:id="rId91" xr:uid="{57A0DDAB-B19D-452A-A242-11E3E108D517}"/>
-    <hyperlink ref="C103" r:id="rId92" xr:uid="{75B510AF-8099-4BD3-959E-B39446E07AB8}"/>
-    <hyperlink ref="C104" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{A2E9D888-12FD-4940-9A40-FAEEBADA138F}"/>
-    <hyperlink ref="C105" r:id="rId94" xr:uid="{97C90A49-C7EF-421E-8405-DD3449431ACC}"/>
-    <hyperlink ref="C106" r:id="rId95" xr:uid="{DA5F5BD6-4F47-4D60-8310-89F23D3C3721}"/>
-    <hyperlink ref="C107" r:id="rId96" xr:uid="{41CBFD2A-53D3-40A7-90AA-7E1C3AD90C72}"/>
-    <hyperlink ref="C108" r:id="rId97" xr:uid="{177A5238-D7E9-46CD-8427-A43D1C864077}"/>
-    <hyperlink ref="C109" r:id="rId98" xr:uid="{53638ECA-DE5E-4F97-AE8A-C9AE8EA81B0C}"/>
-    <hyperlink ref="C110" r:id="rId99" xr:uid="{0A2F513C-2B07-49EE-919E-6840E5055F1F}"/>
-    <hyperlink ref="C111" r:id="rId100" xr:uid="{FC7FFB73-7263-4490-B69D-820B3C143B57}"/>
-    <hyperlink ref="C112" r:id="rId101" xr:uid="{45EBEAF6-7F6B-4F39-9A50-B2EC9977258C}"/>
-    <hyperlink ref="C113" r:id="rId102" xr:uid="{3C5B072E-F16F-4DC4-A199-EE2043C0B51C}"/>
-    <hyperlink ref="C114" r:id="rId103" xr:uid="{ED9EE5A1-4E49-445A-971E-44DE9A873C6B}"/>
-    <hyperlink ref="C115" r:id="rId104" xr:uid="{894B6399-A091-48CE-B453-DC6D6F5F6CFE}"/>
-    <hyperlink ref="C116" r:id="rId105" xr:uid="{46C07B2A-AC6A-4453-BCE8-8700B3DCCD9D}"/>
-    <hyperlink ref="C117" r:id="rId106" xr:uid="{1B03D4D1-DD48-468E-9B58-0DAFF4CA1DF7}"/>
-    <hyperlink ref="C118" r:id="rId107" xr:uid="{9253B5BF-06FC-43D4-9572-7AF882ACF3A6}"/>
-    <hyperlink ref="C119" r:id="rId108" xr:uid="{4CECDF26-EFF1-46E3-9046-70C477A20CEE}"/>
-    <hyperlink ref="C120" r:id="rId109" xr:uid="{8042FE01-208A-4264-A9C9-B5D355F2716D}"/>
-    <hyperlink ref="C121" r:id="rId110" xr:uid="{574A5D27-DEC5-4915-9F60-8CF1EF2A31D4}"/>
-    <hyperlink ref="C122" r:id="rId111" xr:uid="{BE25E35F-EC34-4B63-A42E-80609804D985}"/>
-    <hyperlink ref="C123" r:id="rId112" xr:uid="{0ACBD88B-CB03-453A-BC57-E75070B1FDA1}"/>
-    <hyperlink ref="C124" r:id="rId113" xr:uid="{E1C14998-946E-43B2-A3E6-3D33FA9217A5}"/>
-    <hyperlink ref="C125" r:id="rId114" xr:uid="{602863E7-65C4-472C-8153-92C5BA7E21BB}"/>
-    <hyperlink ref="C126" r:id="rId115" xr:uid="{98E01097-7B0E-45FD-B363-9004BB1687C9}"/>
-    <hyperlink ref="C127" r:id="rId116" xr:uid="{68E947B9-4E45-4538-AF10-B904005BADF6}"/>
-    <hyperlink ref="C128" r:id="rId117" xr:uid="{82719C18-FBFC-4EC4-9F83-C3664578E182}"/>
-    <hyperlink ref="C129" r:id="rId118" xr:uid="{82F313BB-A38C-4699-BD3D-012BAB8A6D29}"/>
-    <hyperlink ref="C130" r:id="rId119" xr:uid="{34AD9C03-9ACA-40DD-930B-BA0B0C68DA7B}"/>
-    <hyperlink ref="C131" r:id="rId120" xr:uid="{DDFF3851-52A5-4010-AB0B-7D4A9955C0C7}"/>
-    <hyperlink ref="C132" r:id="rId121" xr:uid="{8D406201-25FD-42E8-BD3C-1DCB6DB466A4}"/>
-    <hyperlink ref="C133" r:id="rId122" xr:uid="{45304D4F-7A62-467D-BA9B-DA152F5EE1D5}"/>
-    <hyperlink ref="C134" r:id="rId123" xr:uid="{60602F87-3B39-4FE8-BE35-9A3BCE08CC14}"/>
-    <hyperlink ref="C135" r:id="rId124" xr:uid="{97741245-506C-4BEA-819A-5C748FD61AD7}"/>
-    <hyperlink ref="C137" r:id="rId125" xr:uid="{1D9D8C1A-4C8C-4A0E-B44A-8ECC7812AB28}"/>
-    <hyperlink ref="C138" r:id="rId126" xr:uid="{C623928A-B03B-48D8-9426-A0BE7B6B91B2}"/>
-    <hyperlink ref="C139" r:id="rId127" xr:uid="{51260000-49B0-4418-96B5-D03076B45BC2}"/>
-    <hyperlink ref="C140" r:id="rId128" xr:uid="{3DDC01E7-03B3-41FB-A13D-4D6D3010F848}"/>
-    <hyperlink ref="C141" r:id="rId129" xr:uid="{6C109532-3EBF-47B4-A12A-58839B64CECB}"/>
-    <hyperlink ref="C142" r:id="rId130" xr:uid="{E10DB689-194A-4244-8ACB-17A5DA938E18}"/>
-    <hyperlink ref="C143" r:id="rId131" xr:uid="{DF602D2E-61EB-4D16-8C5C-4B96B460F35F}"/>
-    <hyperlink ref="C144" r:id="rId132" xr:uid="{CEBAF15D-0936-49F5-9166-98591D1527D4}"/>
-    <hyperlink ref="C145" r:id="rId133" xr:uid="{CA2E0106-B181-46D2-988E-F4E0CA741779}"/>
-    <hyperlink ref="C146" r:id="rId134" xr:uid="{64D2788B-5808-44BD-8F3B-F1E6779A5F8A}"/>
-    <hyperlink ref="C147" r:id="rId135" xr:uid="{9CE646E2-9FBC-4431-8E52-5F91C507B3F6}"/>
-    <hyperlink ref="C148" r:id="rId136" xr:uid="{45E2B67A-18A4-491F-9466-3427D64D44C5}"/>
-    <hyperlink ref="C149" r:id="rId137" xr:uid="{5F6E75B9-9E3D-4E9B-A10D-502AC1B8327C}"/>
-    <hyperlink ref="C150" r:id="rId138" xr:uid="{1CD3F8FD-01F6-40F8-B706-A9F931C49ECF}"/>
-    <hyperlink ref="C151" r:id="rId139" xr:uid="{0B7671DE-5530-4A82-B3B6-B052DBBDDE69}"/>
-    <hyperlink ref="C152" r:id="rId140" xr:uid="{8D22034E-73BF-4D5C-BA7C-38827648CD81}"/>
-    <hyperlink ref="C153" r:id="rId141" xr:uid="{03929261-1792-4499-A789-F452BB1C5743}"/>
-    <hyperlink ref="C154" r:id="rId142" xr:uid="{34922753-9DFF-4C05-8091-FCCB2FF84196}"/>
-    <hyperlink ref="C155" r:id="rId143" xr:uid="{9CA91F13-F6C0-4658-91C7-B9590F2DE331}"/>
-    <hyperlink ref="C156" r:id="rId144" xr:uid="{D458B542-A198-4E6E-8326-27D632B532F5}"/>
-    <hyperlink ref="C157" r:id="rId145" xr:uid="{C803A389-1A26-454A-83E6-4CC928A449B0}"/>
-    <hyperlink ref="C158" r:id="rId146" xr:uid="{9E3C4566-84B9-4F79-8CC2-64C29A388498}"/>
-    <hyperlink ref="C159" r:id="rId147" xr:uid="{3E404C82-E9FE-48E0-A79E-2D7EA6E0AC6D}"/>
-    <hyperlink ref="C160" r:id="rId148" xr:uid="{866DA970-134B-42E9-9FFC-113BD4F3E64B}"/>
-    <hyperlink ref="C161" r:id="rId149" xr:uid="{FA3525C1-61D8-4098-90AF-3C3645104172}"/>
-    <hyperlink ref="C164" r:id="rId150" xr:uid="{C3A640DB-6BC2-434E-98FF-900CB1B8278A}"/>
-    <hyperlink ref="C165" r:id="rId151" xr:uid="{84C050F6-82FB-4556-BA03-A061C1DED953}"/>
-    <hyperlink ref="C166" r:id="rId152" xr:uid="{0FC3D514-DEA0-4E14-96A6-5D5F98A2BEB4}"/>
-    <hyperlink ref="C167" r:id="rId153" xr:uid="{50D255EF-BF43-436F-BBA4-6DB8E99C6BC5}"/>
-    <hyperlink ref="C168" r:id="rId154" xr:uid="{F680A745-ED4B-493C-AC6B-9875F9B8ABB8}"/>
-    <hyperlink ref="C169" r:id="rId155" xr:uid="{FE4AE7D9-3723-45E4-8EB6-50870C79C9C1}"/>
-    <hyperlink ref="C170" r:id="rId156" xr:uid="{9F1D102B-04FB-408D-80BC-6746D0A24C68}"/>
-    <hyperlink ref="C171" r:id="rId157" xr:uid="{13C716F1-5B97-478A-BD17-8447F0F8045D}"/>
-    <hyperlink ref="C172" r:id="rId158" xr:uid="{62613CB9-1EB3-41ED-BF04-39FB4D3C2712}"/>
-    <hyperlink ref="C175" r:id="rId159" xr:uid="{4C8A8C5A-46E9-49A3-97CF-B11FFAE32C11}"/>
-    <hyperlink ref="C176" r:id="rId160" xr:uid="{62DBC08E-529F-448F-BB5D-38A05F21AB86}"/>
-    <hyperlink ref="C177" r:id="rId161" xr:uid="{835F56FC-CBAF-4C0A-8F40-D4419C5EAB23}"/>
-    <hyperlink ref="C178" r:id="rId162" xr:uid="{6CFE9CE6-6F8A-4F33-809E-5F157F8BB420}"/>
-    <hyperlink ref="C179" r:id="rId163" xr:uid="{F56FFED7-0979-4B43-B507-2BD5CE4BA32F}"/>
-    <hyperlink ref="C180" r:id="rId164" xr:uid="{12C1D09A-A265-4BB0-9CAA-BB6B167A86ED}"/>
-    <hyperlink ref="C181" r:id="rId165" xr:uid="{5E8702DA-5CA8-4D8F-884D-2BA9D4690169}"/>
-    <hyperlink ref="C182" r:id="rId166" xr:uid="{2375AC69-A354-4164-8E0D-A5272E105475}"/>
-    <hyperlink ref="C183" r:id="rId167" xr:uid="{401CA191-1D13-4FCB-8E2C-ED87B584971E}"/>
-    <hyperlink ref="C184" r:id="rId168" xr:uid="{C7F55028-5EC0-4450-957E-A93268CFD769}"/>
-    <hyperlink ref="C185" r:id="rId169" xr:uid="{DFDC9F7E-A1BC-48E0-99C6-45DB77A297C7}"/>
-    <hyperlink ref="C186" r:id="rId170" xr:uid="{0B3F1522-60B3-4BE5-AA25-A230E7378823}"/>
-    <hyperlink ref="C187" r:id="rId171" xr:uid="{0EE6326C-16F9-4C01-B249-4585D92B3A2F}"/>
-    <hyperlink ref="C188" r:id="rId172" xr:uid="{A19D60C6-448A-42F6-99DD-57F5BCEFE5B9}"/>
-    <hyperlink ref="C189" r:id="rId173" xr:uid="{902A5683-A02F-4AF5-97B1-20BCF02F3EFD}"/>
-    <hyperlink ref="C190" r:id="rId174" xr:uid="{A4A83D56-8952-4206-8707-E761FEDBA53F}"/>
-    <hyperlink ref="C191" r:id="rId175" xr:uid="{ED67DCC6-145C-4156-82E3-F98B87C03633}"/>
-    <hyperlink ref="C192" r:id="rId176" xr:uid="{ECEA780B-B253-4DC1-8171-F4C703C4C500}"/>
-    <hyperlink ref="C193" r:id="rId177" xr:uid="{E75AE266-B189-430B-AAEF-3FABD4E9F10C}"/>
-    <hyperlink ref="C194" r:id="rId178" xr:uid="{6E802CA2-0122-485A-B698-C02AB7634DF4}"/>
-    <hyperlink ref="C195" r:id="rId179" xr:uid="{50FF520C-23C2-4946-B536-18AD78F66A33}"/>
-    <hyperlink ref="C196" r:id="rId180" xr:uid="{73049636-14FB-4C3D-B2BF-6262EE9D879C}"/>
-    <hyperlink ref="C197" r:id="rId181" xr:uid="{2770D64A-9D8D-4EA8-A6B5-6E5652EE686B}"/>
-    <hyperlink ref="C198" r:id="rId182" xr:uid="{C7EEA671-93A3-4209-835C-F486D6C75CE5}"/>
-    <hyperlink ref="C199" r:id="rId183" xr:uid="{672DEFED-B052-47FE-8079-61ABE27315E4}"/>
-    <hyperlink ref="C200" r:id="rId184" xr:uid="{3CB79BB9-04A3-487D-9C44-26F59E61C231}"/>
-    <hyperlink ref="C201" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{A1587408-2374-4714-82B4-0F20B7C2C0F0}"/>
-    <hyperlink ref="C202" r:id="rId186" xr:uid="{05015474-D549-4C31-BC8E-9D692A6914B1}"/>
-    <hyperlink ref="C203" r:id="rId187" xr:uid="{B30E7036-1426-4E82-A189-DF1ADAE2C9DD}"/>
-    <hyperlink ref="C204" r:id="rId188" xr:uid="{8DF85468-E1A6-4289-ACB8-3DB6F09DDA71}"/>
-    <hyperlink ref="C205" r:id="rId189" xr:uid="{57A7D921-BFD2-41A6-B60F-C5A48EFE6EB4}"/>
-    <hyperlink ref="C206" r:id="rId190" xr:uid="{3EDEAB26-DFD3-401B-BCFC-9B3E185EE047}"/>
-    <hyperlink ref="C207" r:id="rId191" xr:uid="{745D3665-AC4C-4776-83A3-F5C519DD7872}"/>
-    <hyperlink ref="C208" r:id="rId192" xr:uid="{457137D5-40D4-4BEE-8C83-80B802EF1C32}"/>
-    <hyperlink ref="C209" r:id="rId193" xr:uid="{18589F84-0996-4721-8F7F-89B8D89DD4AB}"/>
-    <hyperlink ref="C210" r:id="rId194" xr:uid="{7CFDAAC2-3AF9-4A4B-942C-02004BF7EF6F}"/>
-    <hyperlink ref="C212" r:id="rId195" xr:uid="{105B7D31-AAC4-40AC-9C44-B873C831D298}"/>
-    <hyperlink ref="C213" r:id="rId196" xr:uid="{29A8DDC9-FE25-4530-B01F-32C0CDC1E296}"/>
-    <hyperlink ref="C214" r:id="rId197" xr:uid="{6DAC99FC-7DCF-4227-A98A-655335BD149C}"/>
-    <hyperlink ref="C215" r:id="rId198" xr:uid="{8A4E54EC-9D8F-414A-8725-FD7758C8D704}"/>
-    <hyperlink ref="C216" r:id="rId199" xr:uid="{90D5508C-CFC1-4B63-B88D-28293B23D7D4}"/>
-    <hyperlink ref="C217" r:id="rId200" xr:uid="{E6D43899-A5D9-4DB3-9DBF-367A2D5FF3B7}"/>
-    <hyperlink ref="C218" r:id="rId201" xr:uid="{A6B309B6-3E8D-4E3B-94A5-FACD383CDEE0}"/>
-    <hyperlink ref="C219" r:id="rId202" xr:uid="{46AEBAA2-3B8D-4F3E-B9DC-F24782BBDBA4}"/>
-    <hyperlink ref="C220" r:id="rId203" xr:uid="{8F242CE3-12B7-4DEE-8EAF-A77376D53223}"/>
-    <hyperlink ref="C221" r:id="rId204" xr:uid="{405B3AF6-C81E-450E-9B86-0657519402CA}"/>
-    <hyperlink ref="C222" r:id="rId205" xr:uid="{6A01962D-EB43-41B8-A1F5-B6CB803345F7}"/>
-    <hyperlink ref="C223" r:id="rId206" xr:uid="{6744B15F-E7B0-42A1-98D7-F74E8D7CC211}"/>
-    <hyperlink ref="C224" r:id="rId207" xr:uid="{C19B16AC-634C-4BC6-BA03-42AE0189938A}"/>
-    <hyperlink ref="C225" r:id="rId208" xr:uid="{C2285481-1E3D-4827-AE02-54596AAFAA9F}"/>
-    <hyperlink ref="C226" r:id="rId209" xr:uid="{3FFE98EE-F0F3-4091-8D96-FA08FA938BBC}"/>
-    <hyperlink ref="C227" r:id="rId210" xr:uid="{42609F56-205B-4030-AD5F-B3AFF5EC2CF6}"/>
-    <hyperlink ref="C228" r:id="rId211" xr:uid="{73A7E9B3-7788-4080-9FD8-CDB1FEA90FEA}"/>
-    <hyperlink ref="C229" r:id="rId212" xr:uid="{94038A79-E908-4C54-87EA-C05FFFD16A80}"/>
-    <hyperlink ref="C230" r:id="rId213" xr:uid="{0FDC3098-240B-4166-A73E-3DA1A21A5740}"/>
-    <hyperlink ref="C231" r:id="rId214" xr:uid="{A506BC79-182E-4FBB-9A4E-E04D4AE7184D}"/>
-    <hyperlink ref="C232" r:id="rId215" xr:uid="{EFB28000-6E1A-4DB4-929A-2C75072AA1B0}"/>
-    <hyperlink ref="C233" r:id="rId216" xr:uid="{9F819172-ED91-40A1-8F25-27F630DD97F6}"/>
-    <hyperlink ref="C234" r:id="rId217" xr:uid="{21053DD2-9E7B-49AE-8C96-53163614C753}"/>
-    <hyperlink ref="C236" r:id="rId218" xr:uid="{6F52D858-1416-4374-AD93-63AB4D37709C}"/>
-    <hyperlink ref="C237" r:id="rId219" xr:uid="{86B006A0-5C7B-4F01-8F1F-163985068A0B}"/>
-    <hyperlink ref="C238" r:id="rId220" xr:uid="{AE4B801F-7021-4AF9-9FF7-89F1016B49AC}"/>
-    <hyperlink ref="C239" r:id="rId221" xr:uid="{4DAB4188-C58B-4062-83AC-E179862DB796}"/>
-    <hyperlink ref="C240" r:id="rId222" xr:uid="{23D62743-14A6-4998-A2CE-FF4191327CEC}"/>
-    <hyperlink ref="C241" r:id="rId223" xr:uid="{C9E7B701-0F44-486E-B7CE-18338850C09C}"/>
-    <hyperlink ref="C242" r:id="rId224" xr:uid="{EDD39450-D1E4-4184-A7C6-ED024A456D2D}"/>
-    <hyperlink ref="C243" r:id="rId225" xr:uid="{3048BC5F-8F11-48D2-A552-9DD27C99243A}"/>
-    <hyperlink ref="C244" r:id="rId226" xr:uid="{1A74FA2B-F381-4F54-9507-418A6E3F0540}"/>
-    <hyperlink ref="C245" r:id="rId227" xr:uid="{B73B1975-7A36-48BE-9FD1-6A7A4D96FAC7}"/>
-    <hyperlink ref="C246" r:id="rId228" xr:uid="{DB6B8817-F714-4CE2-85E3-F0E28DA86891}"/>
-    <hyperlink ref="C247" r:id="rId229" xr:uid="{C1BA810B-A721-4F5B-A3D1-BB67615B9608}"/>
-    <hyperlink ref="C248" r:id="rId230" xr:uid="{74AA13D9-5324-4F87-81D1-B74FD962DBA1}"/>
-    <hyperlink ref="C249" r:id="rId231" xr:uid="{8F22D55A-E0B3-45EC-B384-D948BF358746}"/>
-    <hyperlink ref="C250" r:id="rId232" xr:uid="{F720A998-A836-4641-BD09-0925DFED654E}"/>
-    <hyperlink ref="C251" r:id="rId233" xr:uid="{1283F12A-CB68-4606-89CF-3E8B9174576E}"/>
-    <hyperlink ref="C252" r:id="rId234" xr:uid="{39D8E686-831F-43E1-9FF5-00E145EC06D2}"/>
-    <hyperlink ref="C253" r:id="rId235" xr:uid="{445B5F8C-9EB3-4178-945A-AE5DA125F0BC}"/>
-    <hyperlink ref="C254" r:id="rId236" xr:uid="{C3683B35-0CCB-441E-8A7C-CA1E484BAAE9}"/>
-    <hyperlink ref="C255" r:id="rId237" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{E4384C13-50C3-47BB-9BC2-5665EDDC7E1F}"/>
-    <hyperlink ref="C256" r:id="rId238" xr:uid="{B68209CD-36BD-408E-A594-E6EE2F5B81DF}"/>
-    <hyperlink ref="C257" r:id="rId239" xr:uid="{4C6B9EE7-7041-4D10-932C-6B8694ECE6B3}"/>
-    <hyperlink ref="C258" r:id="rId240" xr:uid="{BE4DB8FA-2B46-473A-9FB1-03EC89C5C42C}"/>
-    <hyperlink ref="C259" r:id="rId241" xr:uid="{4151255A-31A5-4D2A-A468-384866A00159}"/>
-    <hyperlink ref="C260" r:id="rId242" xr:uid="{AD83CB75-A9E0-43A7-96FF-93F5D79860E2}"/>
-    <hyperlink ref="C261" r:id="rId243" xr:uid="{3E3B6349-CD4E-4808-8452-C8E413DDC713}"/>
-    <hyperlink ref="C262" r:id="rId244" xr:uid="{8AD4BDA5-48F7-4D91-9560-B19818BC30A6}"/>
-    <hyperlink ref="C263" r:id="rId245" xr:uid="{8C940241-465F-4A41-86EB-611610711DC9}"/>
-    <hyperlink ref="C264" r:id="rId246" xr:uid="{57CB2D38-3CE4-45F5-A66E-161DFE56D2A5}"/>
-    <hyperlink ref="C265" r:id="rId247" xr:uid="{ACD87923-B665-4909-8463-15D4DDA1F84F}"/>
-    <hyperlink ref="C266" r:id="rId248" xr:uid="{B57C61A0-8C34-4678-AEFA-9B36D33BDEF7}"/>
-    <hyperlink ref="C267" r:id="rId249" xr:uid="{187A1C05-CC98-4DA9-88C8-8265F06EF00A}"/>
-    <hyperlink ref="C268" r:id="rId250" xr:uid="{10E926F7-53E5-4ACD-A9DC-2BBA903135C7}"/>
-    <hyperlink ref="C269" r:id="rId251" xr:uid="{7E301DB5-B1CF-4CAF-AFD9-EAA1531FF7BB}"/>
-    <hyperlink ref="C270" r:id="rId252" xr:uid="{C95F67BE-AA3D-4087-B1F5-18EF2AA9E415}"/>
-    <hyperlink ref="C273" r:id="rId253" xr:uid="{AB866262-DE18-4FFB-80D0-05A5A3D0DEA5}"/>
-    <hyperlink ref="C274" r:id="rId254" xr:uid="{12A8854F-6A90-4F8A-9717-D7C251778AF1}"/>
-    <hyperlink ref="C275" r:id="rId255" xr:uid="{8402E28F-1591-4319-8AE4-C1026DDE092B}"/>
-    <hyperlink ref="C276" r:id="rId256" xr:uid="{ED5A10F8-4BA6-4030-AC55-A4625B0F75A8}"/>
-    <hyperlink ref="C277" r:id="rId257" xr:uid="{C46F5DBA-F613-45DE-9A97-9F90B59E0F58}"/>
-    <hyperlink ref="C278" r:id="rId258" xr:uid="{19C3CD62-A9EF-4773-9A96-7933A9D6B934}"/>
-    <hyperlink ref="C279" r:id="rId259" xr:uid="{3B49A0C7-F52D-4FF0-BF77-B812F2C6C5B4}"/>
-    <hyperlink ref="C280" r:id="rId260" xr:uid="{9C4D1C4D-C143-4893-A4E5-86B674F1E3B4}"/>
-    <hyperlink ref="C281" r:id="rId261" xr:uid="{A390D9B1-EE67-4699-9546-E6C165A473D4}"/>
-    <hyperlink ref="C282" r:id="rId262" xr:uid="{2556BD99-0BA2-49A1-95DB-3351232562CE}"/>
-    <hyperlink ref="C283" r:id="rId263" xr:uid="{A0CC9DE0-1AF0-44C2-A478-7FB06CD39959}"/>
-    <hyperlink ref="C284" r:id="rId264" xr:uid="{5D4716E9-9CE1-4AA5-8908-2DF0DC9FCCAF}"/>
-    <hyperlink ref="C285" r:id="rId265" xr:uid="{52C2AACB-B11E-4173-9CFA-3DCACF284921}"/>
-    <hyperlink ref="C286" r:id="rId266" xr:uid="{924FDDD4-9ECC-4852-A7DC-D4FC7AB0EC56}"/>
-    <hyperlink ref="C287" r:id="rId267" xr:uid="{17857781-B8B7-4875-A943-6FBFE9EC12FC}"/>
-    <hyperlink ref="C288" r:id="rId268" xr:uid="{0CFB70DB-55A6-4164-A445-2976F2EFF3CA}"/>
-    <hyperlink ref="C289" r:id="rId269" xr:uid="{0D3910E0-305D-4EF2-B8CB-D7F0EBA9B93F}"/>
-    <hyperlink ref="C290" r:id="rId270" xr:uid="{578E8AF7-2AB6-4083-ACAF-1B4D65AEBBD3}"/>
-    <hyperlink ref="C291" r:id="rId271" xr:uid="{2933141E-1355-467C-92F8-FD6501456372}"/>
-    <hyperlink ref="C294" r:id="rId272" xr:uid="{742DE859-BA92-42BE-8194-78D9F62CBD4D}"/>
-    <hyperlink ref="C295" r:id="rId273" xr:uid="{DAE7FE95-12B0-49ED-81ED-2CA4F51A5CC7}"/>
-    <hyperlink ref="C296" r:id="rId274" xr:uid="{E34E4976-71B1-4DEF-8718-637470583144}"/>
-    <hyperlink ref="C297" r:id="rId275" xr:uid="{6678C76E-585A-47D9-B93E-A145D59CE3F1}"/>
-    <hyperlink ref="C298" r:id="rId276" xr:uid="{DD0F6DD2-3E04-477D-90C5-E83937CB3D47}"/>
-    <hyperlink ref="C299" r:id="rId277" xr:uid="{2F1427E1-DEE9-4742-9834-9338524FEEEC}"/>
-    <hyperlink ref="C300" r:id="rId278" xr:uid="{9674256A-2DB0-4CED-A2B4-8F8DA9EF8A08}"/>
-    <hyperlink ref="C301" r:id="rId279" xr:uid="{4986DD15-06EC-41DB-A5BC-C54D2203797D}"/>
-    <hyperlink ref="C302" r:id="rId280" xr:uid="{7BDF3051-0E87-44F2-AC78-D5901DFEE8CE}"/>
-    <hyperlink ref="C303" r:id="rId281" xr:uid="{4B549302-6EAC-4A22-9E05-C15FBA7C3F20}"/>
-    <hyperlink ref="C304" r:id="rId282" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{F5F0323D-AD3F-43E5-AB28-47D1497435DD}"/>
-    <hyperlink ref="C305" r:id="rId283" xr:uid="{A2510DFA-B126-4376-8471-121E699F38F2}"/>
-    <hyperlink ref="C306" r:id="rId284" xr:uid="{A84EF3DD-A53F-4313-B694-A88D251F28E0}"/>
-    <hyperlink ref="C307" r:id="rId285" xr:uid="{D9FFA22B-4D6C-477F-B6AF-C84673166D2D}"/>
-    <hyperlink ref="C308" r:id="rId286" xr:uid="{BA59972B-E5A0-45DD-A9E0-D25C01FDA192}"/>
-    <hyperlink ref="C309" r:id="rId287" xr:uid="{E50C9E5E-28A0-42F3-BD6C-191224276CE8}"/>
-    <hyperlink ref="C310" r:id="rId288" xr:uid="{CD6BCAF7-FE66-4F83-92AC-8BA8B028CE34}"/>
-    <hyperlink ref="C311" r:id="rId289" xr:uid="{BFD77835-3846-4BE2-9E4A-0DA97E2C98AC}"/>
-    <hyperlink ref="C312" r:id="rId290" xr:uid="{D273A2A1-9BA5-4D7F-B5F6-75C37785689A}"/>
-    <hyperlink ref="C313" r:id="rId291" xr:uid="{99D59E05-37E3-4287-94F1-8C742FED7D13}"/>
-    <hyperlink ref="C314" r:id="rId292" xr:uid="{FF86087F-039B-4A9D-92A8-D4E2E6B25AB9}"/>
-    <hyperlink ref="C315" r:id="rId293" xr:uid="{D55CA06D-9F7E-4637-947D-3A6268FA8A29}"/>
-    <hyperlink ref="C316" r:id="rId294" xr:uid="{CE69F24F-756E-42BC-93D9-B86BEA2B70C8}"/>
-    <hyperlink ref="C317" r:id="rId295" xr:uid="{63FF4134-2459-4D4B-8C6D-08D6A34BF35C}"/>
-    <hyperlink ref="C318" r:id="rId296" xr:uid="{9368502C-E57D-4F6E-B8BB-1B318BBE53F1}"/>
-    <hyperlink ref="C319" r:id="rId297" xr:uid="{7D8FD617-E3D9-4964-97BE-C854D2CD3EBE}"/>
-    <hyperlink ref="C320" r:id="rId298" xr:uid="{3BC90449-2691-43DE-9ED1-4E681DBBBEBF}"/>
-    <hyperlink ref="C321" r:id="rId299" xr:uid="{899E8A78-7200-473C-86CB-2B2E61F2B5BD}"/>
-    <hyperlink ref="C322" r:id="rId300" xr:uid="{03F2E852-E35F-48C6-AE36-CD954E865EED}"/>
-    <hyperlink ref="C323" r:id="rId301" xr:uid="{7CFF8BF0-B721-438C-8905-5E6EC0239A6C}"/>
-    <hyperlink ref="C324" r:id="rId302" xr:uid="{A1B08672-9CF2-4B7E-8658-8E995F56CCA8}"/>
-    <hyperlink ref="C325" r:id="rId303" xr:uid="{A919D571-C3B0-46FD-9378-994538EAB139}"/>
-    <hyperlink ref="C326" r:id="rId304" xr:uid="{C13D5FA5-61D4-4760-97A6-F54ECE9F19E1}"/>
-    <hyperlink ref="C327" r:id="rId305" xr:uid="{6E6770F5-27F9-4AF4-860B-282DD3972A22}"/>
-    <hyperlink ref="C328" r:id="rId306" xr:uid="{309B22FA-0966-492A-8046-99784B472311}"/>
-    <hyperlink ref="C329" r:id="rId307" xr:uid="{F63D72CA-39F4-4610-B2FA-403F1D170778}"/>
-    <hyperlink ref="C330" r:id="rId308" xr:uid="{E632EFBD-D5F4-4481-831D-312FC49AB7C1}"/>
-    <hyperlink ref="C331" r:id="rId309" xr:uid="{A10AB944-045E-4A97-9ED2-569E1834C4C4}"/>
-    <hyperlink ref="C334" r:id="rId310" xr:uid="{759DC788-EECB-4373-87D6-99898DD6F64D}"/>
-    <hyperlink ref="C335" r:id="rId311" xr:uid="{4743D9A2-1ECA-44CC-9738-57C99B51BAE0}"/>
-    <hyperlink ref="C336" r:id="rId312" xr:uid="{78FC6E83-36FF-4979-A8EB-0DDEE2C2F2C7}"/>
-    <hyperlink ref="C337" r:id="rId313" xr:uid="{EDA7C5E6-DCBD-4DC9-AC72-D5A7F37E22BB}"/>
-    <hyperlink ref="C338" r:id="rId314" xr:uid="{C1221B4F-750B-4AB2-9236-8319557C7A2F}"/>
-    <hyperlink ref="C339" r:id="rId315" xr:uid="{5DC8D135-E64B-49E9-AE23-6D7DA22355C7}"/>
-    <hyperlink ref="C340" r:id="rId316" xr:uid="{31F6879E-27AA-475E-8CED-845F888BBFEB}"/>
-    <hyperlink ref="C341" r:id="rId317" xr:uid="{EA421AE0-79D8-4343-8EEB-F887F9751C4B}"/>
-    <hyperlink ref="C342" r:id="rId318" xr:uid="{D644EB97-EBDC-4FA3-ACE1-B28DD6C05E55}"/>
-    <hyperlink ref="C343" r:id="rId319" xr:uid="{3EC83CC8-5838-4967-AC86-248A011D6504}"/>
-    <hyperlink ref="C344" r:id="rId320" xr:uid="{B0DC44FF-86CB-4A09-AEAD-6DD0246928A7}"/>
-    <hyperlink ref="C345" r:id="rId321" xr:uid="{B5C69993-7A6C-4363-BFAD-B83AF8BC4BBE}"/>
-    <hyperlink ref="C346" r:id="rId322" xr:uid="{5EA7BD5C-7A68-4288-908B-F23F141CB7B1}"/>
-    <hyperlink ref="C347" r:id="rId323" xr:uid="{32FD05DE-9026-413D-86CD-6B9730D04B12}"/>
-    <hyperlink ref="C348" r:id="rId324" xr:uid="{9FAE04B3-873C-4C35-8E23-CD03FFD1FC9B}"/>
-    <hyperlink ref="C349" r:id="rId325" xr:uid="{072163CD-49A1-43CD-824F-409EFDF504F4}"/>
-    <hyperlink ref="C350" r:id="rId326" xr:uid="{18547DD0-CDD7-4091-8267-E88E4D9AD5A4}"/>
-    <hyperlink ref="C351" r:id="rId327" xr:uid="{B571FCA3-A430-403B-8179-F2DB3F0BA112}"/>
-    <hyperlink ref="C354" r:id="rId328" xr:uid="{0F1629F0-6623-45ED-ADD5-4A8D7304709D}"/>
-    <hyperlink ref="C355" r:id="rId329" xr:uid="{392C2A70-17D0-4DFF-BB42-1CEE390EC353}"/>
-    <hyperlink ref="C356" r:id="rId330" xr:uid="{BC10CEC8-D2DE-4A2A-8A3D-3A359F63ABBA}"/>
-    <hyperlink ref="C357" r:id="rId331" xr:uid="{FFCFCB6E-C1B5-43CC-B500-8835A9EEA6BA}"/>
-    <hyperlink ref="C358" r:id="rId332" xr:uid="{9AECD489-26E1-492E-BA7C-2A19EE79B723}"/>
-    <hyperlink ref="C359" r:id="rId333" xr:uid="{E6A36607-360E-49CB-A20C-EDF36D2AAA30}"/>
-    <hyperlink ref="C360" r:id="rId334" xr:uid="{03095C0C-C845-4955-8896-D395271774C7}"/>
-    <hyperlink ref="C361" r:id="rId335" xr:uid="{2CFFFDA1-45FA-4E2F-B8FA-957DCEDAE337}"/>
-    <hyperlink ref="C362" r:id="rId336" xr:uid="{799A110D-63A9-4399-ABDD-3B490F58D891}"/>
-    <hyperlink ref="C363" r:id="rId337" xr:uid="{1D686559-4A70-4ADD-BC12-F75968BFECE5}"/>
-    <hyperlink ref="C364" r:id="rId338" xr:uid="{8D28D172-7965-4EDC-ACD6-8F95D770D90F}"/>
-    <hyperlink ref="C365" r:id="rId339" xr:uid="{F838F109-9B6A-450E-9E31-D16CF0014A88}"/>
-    <hyperlink ref="C366" r:id="rId340" xr:uid="{B0ACF2D2-CC9C-4A93-9AC0-23B8B70D8B39}"/>
-    <hyperlink ref="C367" r:id="rId341" xr:uid="{425A95A5-0534-40E7-9034-2E25942FA173}"/>
-    <hyperlink ref="C368" r:id="rId342" xr:uid="{E16A2AC8-4A4F-4187-9445-78DE1FD4B6AB}"/>
-    <hyperlink ref="C369" r:id="rId343" xr:uid="{30F30548-0DC4-47EA-930F-A49C687A342E}"/>
-    <hyperlink ref="C370" r:id="rId344" xr:uid="{857F7B04-6C89-4BF3-B42E-2EA53EBDCE31}"/>
-    <hyperlink ref="C371" r:id="rId345" xr:uid="{457B9FE4-5A0E-4D96-8978-2F16BF6804AE}"/>
-    <hyperlink ref="C372" r:id="rId346" xr:uid="{82287027-516A-4A4E-9C0F-DD9E1F1C6F57}"/>
-    <hyperlink ref="C373" r:id="rId347" xr:uid="{71C055E2-9703-46FB-B45E-B3783EC84D94}"/>
-    <hyperlink ref="C374" r:id="rId348" xr:uid="{DFDE4089-02B9-4E4F-96EB-285E20D59374}"/>
-    <hyperlink ref="C375" r:id="rId349" xr:uid="{26053E38-5504-47C4-9FC4-A409519B789A}"/>
-    <hyperlink ref="C376" r:id="rId350" xr:uid="{ABE4818D-3EDE-42FA-B7E2-69719EF46E38}"/>
-    <hyperlink ref="C377" r:id="rId351" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{EEA29227-2750-4CDB-B618-A261B5D45E8B}"/>
-    <hyperlink ref="C378" r:id="rId352" xr:uid="{9CBD51BB-6AFA-47FE-B108-7ACF21149994}"/>
-    <hyperlink ref="C379" r:id="rId353" xr:uid="{2CE2853B-F2DB-4047-81BF-D09F864DF55F}"/>
-    <hyperlink ref="C380" r:id="rId354" xr:uid="{056C1917-6BC7-4AB1-989B-9209CC627955}"/>
-    <hyperlink ref="C381" r:id="rId355" xr:uid="{4105134F-C2B5-48E7-96BD-66D8801448C7}"/>
-    <hyperlink ref="C382" r:id="rId356" xr:uid="{DC4B6655-07E5-4771-9DA3-40F3E3F18D59}"/>
-    <hyperlink ref="C383" r:id="rId357" xr:uid="{BE1C69EE-9B33-4EBE-831E-4B7956B0F120}"/>
-    <hyperlink ref="C384" r:id="rId358" xr:uid="{8EFB4657-829A-4C23-AB15-EEB8679C1DCA}"/>
-    <hyperlink ref="C385" r:id="rId359" xr:uid="{82FEA0A1-BF26-4877-8C87-6A1732EFE0CB}"/>
-    <hyperlink ref="C386" r:id="rId360" xr:uid="{29AB8E14-EACE-4280-9F6B-9CD882E0774F}"/>
-    <hyperlink ref="C387" r:id="rId361" xr:uid="{F3796245-79ED-4A49-B0EA-D1980B41BA29}"/>
-    <hyperlink ref="C388" r:id="rId362" xr:uid="{36F01E8B-79F1-47B1-A761-A93DF6142DEE}"/>
-    <hyperlink ref="C389" r:id="rId363" xr:uid="{B7F044CC-DB21-4051-9D08-E5B6C57A3D98}"/>
-    <hyperlink ref="C390" r:id="rId364" xr:uid="{4D34F375-9808-49D1-912A-B89D1083BA19}"/>
-    <hyperlink ref="C391" r:id="rId365" xr:uid="{FEF205C3-1150-4A8E-B72F-6FAF189CAA41}"/>
-    <hyperlink ref="C392" r:id="rId366" xr:uid="{9CFB4EF7-DA84-4E46-A267-B26F228D4C84}"/>
-    <hyperlink ref="C393" r:id="rId367" xr:uid="{E7DF363E-819A-4B60-B024-A7B194733259}"/>
-    <hyperlink ref="C394" r:id="rId368" xr:uid="{C737F330-65B3-44F4-BA70-28E86D44D21E}"/>
-    <hyperlink ref="C395" r:id="rId369" xr:uid="{DE382BE9-18D4-4A7F-9DE3-2414E06744C2}"/>
-    <hyperlink ref="C396" r:id="rId370" xr:uid="{C4519722-E22C-4661-8894-869453B37DED}"/>
-    <hyperlink ref="C397" r:id="rId371" xr:uid="{4924DACC-DCC2-4261-92F0-15C97D0CD99B}"/>
-    <hyperlink ref="C400" r:id="rId372" xr:uid="{0BA38D16-AA8D-414E-83AE-0F05F763213A}"/>
-    <hyperlink ref="C401" r:id="rId373" xr:uid="{2499267C-1DB5-4629-B1E5-E6F44B8F7AD5}"/>
-    <hyperlink ref="C402" r:id="rId374" xr:uid="{ED7D2BFE-ECD1-4FCA-98BC-8E1FEF2BB82F}"/>
-    <hyperlink ref="C403" r:id="rId375" xr:uid="{F04FC3EF-FC06-4C22-8823-B32C2FEC192A}"/>
-    <hyperlink ref="C404" r:id="rId376" xr:uid="{48D25BBD-06A2-4E82-97ED-CA72CDFD996D}"/>
-    <hyperlink ref="C405" r:id="rId377" xr:uid="{27E016B6-B43E-4A2D-ADCE-3EDFD1E220C5}"/>
-    <hyperlink ref="C408" r:id="rId378" xr:uid="{7D5EA0FD-EF2C-4E9C-AB22-2E4928D6E8E3}"/>
-    <hyperlink ref="C409" r:id="rId379" xr:uid="{E81EF052-83DD-42DF-AD3A-B181F612D090}"/>
-    <hyperlink ref="C410" r:id="rId380" xr:uid="{597BFC3B-A1D0-4D9D-A4E4-BB204E48E6D9}"/>
-    <hyperlink ref="C411" r:id="rId381" xr:uid="{06292338-9715-49BF-B24E-C062A4B98967}"/>
-    <hyperlink ref="C412" r:id="rId382" xr:uid="{AABD486F-671A-45EA-94FC-426A7339C8BE}"/>
-    <hyperlink ref="C413" r:id="rId383" xr:uid="{F8A3BDA4-A685-4A44-B9B3-2A32DB6DC3A4}"/>
-    <hyperlink ref="C414" r:id="rId384" xr:uid="{8C163BE0-B5BF-4781-9565-61FEED5922F7}"/>
-    <hyperlink ref="C415" r:id="rId385" xr:uid="{F41D8FD0-FB5F-4580-B90A-8C479AE16EC1}"/>
-    <hyperlink ref="C416" r:id="rId386" xr:uid="{94350FAA-7F97-4827-9CED-5AD4CEA8679C}"/>
-    <hyperlink ref="C417" r:id="rId387" xr:uid="{E52C737C-DA3E-4BC9-B844-A99833E8CB6C}"/>
-    <hyperlink ref="C418" r:id="rId388" xr:uid="{82966C76-85B9-4130-8C52-0040F0EC34EC}"/>
-    <hyperlink ref="C419" r:id="rId389" xr:uid="{E73B4A76-CA39-4DF3-B2EC-92B2E04293B3}"/>
-    <hyperlink ref="C420" r:id="rId390" xr:uid="{DCE1C786-A2D8-4E29-B77E-0EE8A2D5E6E0}"/>
-    <hyperlink ref="C421" r:id="rId391" xr:uid="{F2A31F79-4B82-47BD-A408-34D6227AACC4}"/>
-    <hyperlink ref="C422" r:id="rId392" xr:uid="{741FA9C1-5A76-43E7-A1CF-CB1848054F07}"/>
-    <hyperlink ref="C423" r:id="rId393" xr:uid="{040937C7-BC60-42D9-BBAA-9D3DCCDA4C1B}"/>
-    <hyperlink ref="C424" r:id="rId394" xr:uid="{80C3D2C2-EECC-4990-9A2C-744469CAC8B1}"/>
-    <hyperlink ref="C425" r:id="rId395" xr:uid="{B54FC0A7-39A3-47CD-A04A-32797C39BBCF}"/>
-    <hyperlink ref="C426" r:id="rId396" xr:uid="{5614CEBB-97B7-40E3-A368-F5C5A001A141}"/>
-    <hyperlink ref="C427" r:id="rId397" xr:uid="{1179795D-6652-40C3-94BD-D8961A2123FA}"/>
-    <hyperlink ref="C428" r:id="rId398" xr:uid="{937AE1A9-0F44-43A4-8BED-B75653B6612C}"/>
-    <hyperlink ref="C429" r:id="rId399" xr:uid="{E34087DA-EB44-4352-92A0-1ED4DA5B6EB1}"/>
-    <hyperlink ref="C430" r:id="rId400" xr:uid="{97636CA4-9F30-4B36-B086-021FC4789C87}"/>
-    <hyperlink ref="C431" r:id="rId401" xr:uid="{7A3F67FB-9EB1-4E2E-B769-7B1DFAA2815E}"/>
-    <hyperlink ref="C432" r:id="rId402" xr:uid="{8D639D8A-AD95-49E9-9AB9-C9F8510FAE6D}"/>
-    <hyperlink ref="C433" r:id="rId403" xr:uid="{42B3E0EA-4AC4-4CEC-A577-C990B2689A41}"/>
-    <hyperlink ref="C434" r:id="rId404" xr:uid="{85F9422B-2B60-4BAF-89E3-FE1DBEACD49C}"/>
-    <hyperlink ref="C435" r:id="rId405" xr:uid="{909E019E-E76A-471E-8FF6-42CF48E9FCCA}"/>
-    <hyperlink ref="C436" r:id="rId406" xr:uid="{27908552-4881-4AC9-965E-6F5D78CDD86A}"/>
-    <hyperlink ref="C437" r:id="rId407" xr:uid="{595ADD6C-B836-4BCA-9D47-4B4C81E116C6}"/>
-    <hyperlink ref="C438" r:id="rId408" xr:uid="{82D6FDFA-3F5D-44EC-B9EA-75849448DC64}"/>
-    <hyperlink ref="C439" r:id="rId409" xr:uid="{E8F28F23-FC32-493B-B446-5B8D5BA8CEEE}"/>
-    <hyperlink ref="C440" r:id="rId410" xr:uid="{504A194B-1C78-4ACF-9140-0F9D693516F2}"/>
-    <hyperlink ref="C441" r:id="rId411" xr:uid="{D0C96A6F-12D6-4605-A549-85DCB2F4E4AD}"/>
-    <hyperlink ref="C442" r:id="rId412" xr:uid="{7BA0180D-F93D-47C6-9AC3-D2B18FB3BEA1}"/>
-    <hyperlink ref="C443" r:id="rId413" xr:uid="{FDD4512F-D7A5-44C1-B4B4-B043FE2E6F28}"/>
-    <hyperlink ref="C444" r:id="rId414" xr:uid="{57803F21-16BB-4420-90B1-C904066D37D3}"/>
-    <hyperlink ref="C445" r:id="rId415" xr:uid="{1421A13C-1FAD-4C58-B9B0-726834000829}"/>
-    <hyperlink ref="C446" r:id="rId416" xr:uid="{116942C1-8DE3-4E4E-9152-10FF31FC646D}"/>
-    <hyperlink ref="C447" r:id="rId417" xr:uid="{6FF69242-A261-4949-B246-067AC9F16AC4}"/>
-    <hyperlink ref="C448" r:id="rId418" xr:uid="{55CFA2D1-001A-40CE-A218-EF3B90295E5E}"/>
-    <hyperlink ref="C449" r:id="rId419" xr:uid="{DC99469C-4C8F-4FCC-AA2E-269828B325A2}"/>
-    <hyperlink ref="C450" r:id="rId420" xr:uid="{CF263036-9960-4907-A307-3D7E56080F2F}"/>
-    <hyperlink ref="C451" r:id="rId421" xr:uid="{CB55F3B9-3094-49AF-856C-FD9F575439A7}"/>
-    <hyperlink ref="C452" r:id="rId422" xr:uid="{A1B85B72-1849-4D06-B19A-23FF2ED3D4F5}"/>
-    <hyperlink ref="C453" r:id="rId423" xr:uid="{E002429C-C55C-4C02-997E-189C8F452493}"/>
-    <hyperlink ref="C454" r:id="rId424" xr:uid="{7C4783B3-2D44-4A1F-BBBD-F03E51AA7BFC}"/>
-    <hyperlink ref="C455" r:id="rId425" xr:uid="{8B122BDE-623F-43CD-A31D-1E77AEB77979}"/>
-    <hyperlink ref="C456" r:id="rId426" xr:uid="{13BB15E2-E5A1-477D-A02D-8B812214AA29}"/>
-    <hyperlink ref="C457" r:id="rId427" xr:uid="{5DBDDA45-C4F6-4E17-AD03-5167BDBF280A}"/>
-    <hyperlink ref="C458" r:id="rId428" xr:uid="{83353729-5FDE-4524-8E5B-45699432BBEA}"/>
-    <hyperlink ref="C459" r:id="rId429" xr:uid="{93616FFF-F202-4A4A-AF3D-6A2075502D34}"/>
-    <hyperlink ref="C460" r:id="rId430" xr:uid="{FB4FFB7F-E0BC-40EE-97ED-2C9A155734A6}"/>
-    <hyperlink ref="C461" r:id="rId431" xr:uid="{4AF354C8-9EE0-4530-8C87-28BAD915BDEF}"/>
-    <hyperlink ref="C462" r:id="rId432" xr:uid="{AC93B941-4FE1-4020-94E2-9CFB4C13A869}"/>
-    <hyperlink ref="C463" r:id="rId433" xr:uid="{DFA934FF-C11B-459F-901B-319EF2A7113A}"/>
-    <hyperlink ref="C464" r:id="rId434" xr:uid="{60ACABB5-2E07-40AE-96BB-A14357BDA0C1}"/>
-    <hyperlink ref="C465" r:id="rId435" xr:uid="{6FD7694C-735B-4E58-8172-E613FC7644C6}"/>
-    <hyperlink ref="C466" r:id="rId436" xr:uid="{2EACD042-C39F-4C0E-8B70-29830A35EE18}"/>
-    <hyperlink ref="C467" r:id="rId437" xr:uid="{8BE8983C-3048-47CC-A39E-0C8932165975}"/>
-    <hyperlink ref="C468" r:id="rId438" xr:uid="{5ABF1225-5B3A-4FEE-9CFD-7C56B7C5772A}"/>
-    <hyperlink ref="C470" r:id="rId439" xr:uid="{42351F60-9D09-43AC-8D62-720195846E5B}"/>
-    <hyperlink ref="C479" r:id="rId440" xr:uid="{2C0FBC16-EA67-4D88-B16B-9EFB56EF331B}"/>
-    <hyperlink ref="C478" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{A350EFE0-E157-495B-AA34-EB18811B0741}"/>
-    <hyperlink ref="C477" r:id="rId442" xr:uid="{D11E7D04-D141-44A3-A6B7-A3E586ED1A2E}"/>
-    <hyperlink ref="C476" r:id="rId443" xr:uid="{632FC8E2-AF6E-456F-AEC3-89E5365422AA}"/>
-    <hyperlink ref="C475" r:id="rId444" xr:uid="{F8100F35-B6BD-44CE-B87E-C5A8235C53FA}"/>
-    <hyperlink ref="C474" r:id="rId445" xr:uid="{1CB38442-4267-4714-8538-69858CE95771}"/>
-    <hyperlink ref="C473" r:id="rId446" xr:uid="{DBB1282E-A93A-425C-B747-356067BD1BFE}"/>
-    <hyperlink ref="C472" r:id="rId447" xr:uid="{58B0412C-7E89-4305-86DE-0F7079CFD01C}"/>
-    <hyperlink ref="C471" r:id="rId448" xr:uid="{F273482F-44F4-43EF-84FA-C2D32792A473}"/>
+    <hyperlink ref="C75" r:id="rId67" xr:uid="{65BD2BF9-D7AC-4740-97F9-3EDF5B029689}"/>
+    <hyperlink ref="C76" r:id="rId68" xr:uid="{837C60AC-D410-49E8-8D29-DD962B7E0302}"/>
+    <hyperlink ref="C77" r:id="rId69" xr:uid="{2D4E7B92-5202-41BD-B7AD-B8CC5B5A06DC}"/>
+    <hyperlink ref="C78" r:id="rId70" xr:uid="{698DBC9D-DC1F-4205-A371-424ADE3330F8}"/>
+    <hyperlink ref="C79" r:id="rId71" xr:uid="{4F5B232C-3552-478B-96DC-2E83ABFC0417}"/>
+    <hyperlink ref="C80" r:id="rId72" xr:uid="{C2E6BCF8-CD88-4D27-9EC4-FF92C11F3A32}"/>
+    <hyperlink ref="C81" r:id="rId73" xr:uid="{C090DF9A-F14A-4878-95F1-1BD9C9F4F53B}"/>
+    <hyperlink ref="C82" r:id="rId74" xr:uid="{A284AD96-81E5-4E9D-B0B2-4E2B7669CD4B}"/>
+    <hyperlink ref="C83" r:id="rId75" xr:uid="{4D1FE05B-23B8-46C9-AD81-4BEA6457967D}"/>
+    <hyperlink ref="C84" r:id="rId76" xr:uid="{F1379B1B-2F74-43B0-B626-FD04D2779F5F}"/>
+    <hyperlink ref="C85" r:id="rId77" xr:uid="{D8E2950C-A426-4888-861B-63FC6E69C77F}"/>
+    <hyperlink ref="C86" r:id="rId78" xr:uid="{13553FA0-40FA-4D28-9F05-218B8954293F}"/>
+    <hyperlink ref="C87" r:id="rId79" xr:uid="{D5A9A22C-E2D0-4D8C-B717-55DB96D49420}"/>
+    <hyperlink ref="C88" r:id="rId80" xr:uid="{CE4EB5D1-B990-4BA8-B0F9-BDF65F78E66D}"/>
+    <hyperlink ref="C89" r:id="rId81" xr:uid="{4345AE5C-08B2-40D3-AC02-4846FE01871C}"/>
+    <hyperlink ref="C90" r:id="rId82" xr:uid="{38FD6C8E-C600-45B5-918E-1002C129CFA2}"/>
+    <hyperlink ref="C91" r:id="rId83" xr:uid="{A977341C-5F4B-453A-B2B9-B623E130F3FF}"/>
+    <hyperlink ref="C92" r:id="rId84" xr:uid="{4CD955EE-A6DA-436F-ADCF-A69D8DF22BD0}"/>
+    <hyperlink ref="C93" r:id="rId85" xr:uid="{744239A4-C9AC-4BB7-9156-DE5549D9DB4E}"/>
+    <hyperlink ref="C94" r:id="rId86" xr:uid="{E2C2F51A-E178-4839-997B-D33538CF2BD3}"/>
+    <hyperlink ref="C98" r:id="rId87" xr:uid="{DA30B03C-8F65-464C-A44F-56CB34F2C26D}"/>
+    <hyperlink ref="C99" r:id="rId88" xr:uid="{FAC8D1B2-49F4-4F03-B29D-194C148C8D71}"/>
+    <hyperlink ref="C100" r:id="rId89" xr:uid="{CC44B576-71E7-4C58-863D-69D57D5DBC20}"/>
+    <hyperlink ref="C101" r:id="rId90" xr:uid="{57A0DDAB-B19D-452A-A242-11E3E108D517}"/>
+    <hyperlink ref="C102" r:id="rId91" xr:uid="{75B510AF-8099-4BD3-959E-B39446E07AB8}"/>
+    <hyperlink ref="C103" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{A2E9D888-12FD-4940-9A40-FAEEBADA138F}"/>
+    <hyperlink ref="C104" r:id="rId93" xr:uid="{97C90A49-C7EF-421E-8405-DD3449431ACC}"/>
+    <hyperlink ref="C105" r:id="rId94" xr:uid="{DA5F5BD6-4F47-4D60-8310-89F23D3C3721}"/>
+    <hyperlink ref="C106" r:id="rId95" xr:uid="{41CBFD2A-53D3-40A7-90AA-7E1C3AD90C72}"/>
+    <hyperlink ref="C107" r:id="rId96" xr:uid="{177A5238-D7E9-46CD-8427-A43D1C864077}"/>
+    <hyperlink ref="C108" r:id="rId97" xr:uid="{53638ECA-DE5E-4F97-AE8A-C9AE8EA81B0C}"/>
+    <hyperlink ref="C109" r:id="rId98" xr:uid="{0A2F513C-2B07-49EE-919E-6840E5055F1F}"/>
+    <hyperlink ref="C110" r:id="rId99" xr:uid="{FC7FFB73-7263-4490-B69D-820B3C143B57}"/>
+    <hyperlink ref="C111" r:id="rId100" xr:uid="{45EBEAF6-7F6B-4F39-9A50-B2EC9977258C}"/>
+    <hyperlink ref="C112" r:id="rId101" xr:uid="{3C5B072E-F16F-4DC4-A199-EE2043C0B51C}"/>
+    <hyperlink ref="C113" r:id="rId102" xr:uid="{ED9EE5A1-4E49-445A-971E-44DE9A873C6B}"/>
+    <hyperlink ref="C114" r:id="rId103" xr:uid="{894B6399-A091-48CE-B453-DC6D6F5F6CFE}"/>
+    <hyperlink ref="C115" r:id="rId104" xr:uid="{46C07B2A-AC6A-4453-BCE8-8700B3DCCD9D}"/>
+    <hyperlink ref="C116" r:id="rId105" xr:uid="{1B03D4D1-DD48-468E-9B58-0DAFF4CA1DF7}"/>
+    <hyperlink ref="C117" r:id="rId106" xr:uid="{9253B5BF-06FC-43D4-9572-7AF882ACF3A6}"/>
+    <hyperlink ref="C118" r:id="rId107" xr:uid="{4CECDF26-EFF1-46E3-9046-70C477A20CEE}"/>
+    <hyperlink ref="C119" r:id="rId108" xr:uid="{8042FE01-208A-4264-A9C9-B5D355F2716D}"/>
+    <hyperlink ref="C120" r:id="rId109" xr:uid="{574A5D27-DEC5-4915-9F60-8CF1EF2A31D4}"/>
+    <hyperlink ref="C121" r:id="rId110" xr:uid="{BE25E35F-EC34-4B63-A42E-80609804D985}"/>
+    <hyperlink ref="C122" r:id="rId111" xr:uid="{0ACBD88B-CB03-453A-BC57-E75070B1FDA1}"/>
+    <hyperlink ref="C123" r:id="rId112" xr:uid="{E1C14998-946E-43B2-A3E6-3D33FA9217A5}"/>
+    <hyperlink ref="C124" r:id="rId113" xr:uid="{602863E7-65C4-472C-8153-92C5BA7E21BB}"/>
+    <hyperlink ref="C125" r:id="rId114" xr:uid="{98E01097-7B0E-45FD-B363-9004BB1687C9}"/>
+    <hyperlink ref="C126" r:id="rId115" xr:uid="{68E947B9-4E45-4538-AF10-B904005BADF6}"/>
+    <hyperlink ref="C127" r:id="rId116" xr:uid="{82719C18-FBFC-4EC4-9F83-C3664578E182}"/>
+    <hyperlink ref="C128" r:id="rId117" xr:uid="{82F313BB-A38C-4699-BD3D-012BAB8A6D29}"/>
+    <hyperlink ref="C129" r:id="rId118" xr:uid="{34AD9C03-9ACA-40DD-930B-BA0B0C68DA7B}"/>
+    <hyperlink ref="C130" r:id="rId119" xr:uid="{DDFF3851-52A5-4010-AB0B-7D4A9955C0C7}"/>
+    <hyperlink ref="C131" r:id="rId120" xr:uid="{8D406201-25FD-42E8-BD3C-1DCB6DB466A4}"/>
+    <hyperlink ref="C132" r:id="rId121" xr:uid="{45304D4F-7A62-467D-BA9B-DA152F5EE1D5}"/>
+    <hyperlink ref="C133" r:id="rId122" xr:uid="{60602F87-3B39-4FE8-BE35-9A3BCE08CC14}"/>
+    <hyperlink ref="C134" r:id="rId123" xr:uid="{97741245-506C-4BEA-819A-5C748FD61AD7}"/>
+    <hyperlink ref="C136" r:id="rId124" xr:uid="{1D9D8C1A-4C8C-4A0E-B44A-8ECC7812AB28}"/>
+    <hyperlink ref="C137" r:id="rId125" xr:uid="{C623928A-B03B-48D8-9426-A0BE7B6B91B2}"/>
+    <hyperlink ref="C138" r:id="rId126" xr:uid="{51260000-49B0-4418-96B5-D03076B45BC2}"/>
+    <hyperlink ref="C139" r:id="rId127" xr:uid="{3DDC01E7-03B3-41FB-A13D-4D6D3010F848}"/>
+    <hyperlink ref="C140" r:id="rId128" xr:uid="{6C109532-3EBF-47B4-A12A-58839B64CECB}"/>
+    <hyperlink ref="C141" r:id="rId129" xr:uid="{E10DB689-194A-4244-8ACB-17A5DA938E18}"/>
+    <hyperlink ref="C142" r:id="rId130" xr:uid="{DF602D2E-61EB-4D16-8C5C-4B96B460F35F}"/>
+    <hyperlink ref="C143" r:id="rId131" xr:uid="{CEBAF15D-0936-49F5-9166-98591D1527D4}"/>
+    <hyperlink ref="C144" r:id="rId132" xr:uid="{CA2E0106-B181-46D2-988E-F4E0CA741779}"/>
+    <hyperlink ref="C145" r:id="rId133" xr:uid="{64D2788B-5808-44BD-8F3B-F1E6779A5F8A}"/>
+    <hyperlink ref="C146" r:id="rId134" xr:uid="{9CE646E2-9FBC-4431-8E52-5F91C507B3F6}"/>
+    <hyperlink ref="C147" r:id="rId135" xr:uid="{45E2B67A-18A4-491F-9466-3427D64D44C5}"/>
+    <hyperlink ref="C148" r:id="rId136" xr:uid="{5F6E75B9-9E3D-4E9B-A10D-502AC1B8327C}"/>
+    <hyperlink ref="C149" r:id="rId137" xr:uid="{1CD3F8FD-01F6-40F8-B706-A9F931C49ECF}"/>
+    <hyperlink ref="C150" r:id="rId138" xr:uid="{0B7671DE-5530-4A82-B3B6-B052DBBDDE69}"/>
+    <hyperlink ref="C151" r:id="rId139" xr:uid="{8D22034E-73BF-4D5C-BA7C-38827648CD81}"/>
+    <hyperlink ref="C152" r:id="rId140" xr:uid="{03929261-1792-4499-A789-F452BB1C5743}"/>
+    <hyperlink ref="C153" r:id="rId141" xr:uid="{34922753-9DFF-4C05-8091-FCCB2FF84196}"/>
+    <hyperlink ref="C154" r:id="rId142" xr:uid="{9CA91F13-F6C0-4658-91C7-B9590F2DE331}"/>
+    <hyperlink ref="C155" r:id="rId143" xr:uid="{D458B542-A198-4E6E-8326-27D632B532F5}"/>
+    <hyperlink ref="C156" r:id="rId144" xr:uid="{C803A389-1A26-454A-83E6-4CC928A449B0}"/>
+    <hyperlink ref="C157" r:id="rId145" xr:uid="{9E3C4566-84B9-4F79-8CC2-64C29A388498}"/>
+    <hyperlink ref="C158" r:id="rId146" xr:uid="{3E404C82-E9FE-48E0-A79E-2D7EA6E0AC6D}"/>
+    <hyperlink ref="C159" r:id="rId147" xr:uid="{866DA970-134B-42E9-9FFC-113BD4F3E64B}"/>
+    <hyperlink ref="C160" r:id="rId148" xr:uid="{FA3525C1-61D8-4098-90AF-3C3645104172}"/>
+    <hyperlink ref="C163" r:id="rId149" xr:uid="{C3A640DB-6BC2-434E-98FF-900CB1B8278A}"/>
+    <hyperlink ref="C164" r:id="rId150" xr:uid="{84C050F6-82FB-4556-BA03-A061C1DED953}"/>
+    <hyperlink ref="C165" r:id="rId151" xr:uid="{0FC3D514-DEA0-4E14-96A6-5D5F98A2BEB4}"/>
+    <hyperlink ref="C166" r:id="rId152" xr:uid="{50D255EF-BF43-436F-BBA4-6DB8E99C6BC5}"/>
+    <hyperlink ref="C167" r:id="rId153" xr:uid="{F680A745-ED4B-493C-AC6B-9875F9B8ABB8}"/>
+    <hyperlink ref="C168" r:id="rId154" xr:uid="{FE4AE7D9-3723-45E4-8EB6-50870C79C9C1}"/>
+    <hyperlink ref="C169" r:id="rId155" xr:uid="{9F1D102B-04FB-408D-80BC-6746D0A24C68}"/>
+    <hyperlink ref="C170" r:id="rId156" xr:uid="{13C716F1-5B97-478A-BD17-8447F0F8045D}"/>
+    <hyperlink ref="C171" r:id="rId157" xr:uid="{62613CB9-1EB3-41ED-BF04-39FB4D3C2712}"/>
+    <hyperlink ref="C174" r:id="rId158" xr:uid="{4C8A8C5A-46E9-49A3-97CF-B11FFAE32C11}"/>
+    <hyperlink ref="C175" r:id="rId159" xr:uid="{62DBC08E-529F-448F-BB5D-38A05F21AB86}"/>
+    <hyperlink ref="C176" r:id="rId160" xr:uid="{835F56FC-CBAF-4C0A-8F40-D4419C5EAB23}"/>
+    <hyperlink ref="C177" r:id="rId161" xr:uid="{6CFE9CE6-6F8A-4F33-809E-5F157F8BB420}"/>
+    <hyperlink ref="C178" r:id="rId162" xr:uid="{F56FFED7-0979-4B43-B507-2BD5CE4BA32F}"/>
+    <hyperlink ref="C179" r:id="rId163" xr:uid="{12C1D09A-A265-4BB0-9CAA-BB6B167A86ED}"/>
+    <hyperlink ref="C180" r:id="rId164" xr:uid="{5E8702DA-5CA8-4D8F-884D-2BA9D4690169}"/>
+    <hyperlink ref="C181" r:id="rId165" xr:uid="{2375AC69-A354-4164-8E0D-A5272E105475}"/>
+    <hyperlink ref="C182" r:id="rId166" xr:uid="{401CA191-1D13-4FCB-8E2C-ED87B584971E}"/>
+    <hyperlink ref="C183" r:id="rId167" xr:uid="{C7F55028-5EC0-4450-957E-A93268CFD769}"/>
+    <hyperlink ref="C184" r:id="rId168" xr:uid="{DFDC9F7E-A1BC-48E0-99C6-45DB77A297C7}"/>
+    <hyperlink ref="C185" r:id="rId169" xr:uid="{0B3F1522-60B3-4BE5-AA25-A230E7378823}"/>
+    <hyperlink ref="C186" r:id="rId170" xr:uid="{0EE6326C-16F9-4C01-B249-4585D92B3A2F}"/>
+    <hyperlink ref="C187" r:id="rId171" xr:uid="{A19D60C6-448A-42F6-99DD-57F5BCEFE5B9}"/>
+    <hyperlink ref="C188" r:id="rId172" xr:uid="{902A5683-A02F-4AF5-97B1-20BCF02F3EFD}"/>
+    <hyperlink ref="C189" r:id="rId173" xr:uid="{A4A83D56-8952-4206-8707-E761FEDBA53F}"/>
+    <hyperlink ref="C190" r:id="rId174" xr:uid="{ED67DCC6-145C-4156-82E3-F98B87C03633}"/>
+    <hyperlink ref="C191" r:id="rId175" xr:uid="{ECEA780B-B253-4DC1-8171-F4C703C4C500}"/>
+    <hyperlink ref="C192" r:id="rId176" xr:uid="{E75AE266-B189-430B-AAEF-3FABD4E9F10C}"/>
+    <hyperlink ref="C193" r:id="rId177" xr:uid="{6E802CA2-0122-485A-B698-C02AB7634DF4}"/>
+    <hyperlink ref="C194" r:id="rId178" xr:uid="{50FF520C-23C2-4946-B536-18AD78F66A33}"/>
+    <hyperlink ref="C195" r:id="rId179" xr:uid="{73049636-14FB-4C3D-B2BF-6262EE9D879C}"/>
+    <hyperlink ref="C196" r:id="rId180" xr:uid="{2770D64A-9D8D-4EA8-A6B5-6E5652EE686B}"/>
+    <hyperlink ref="C197" r:id="rId181" xr:uid="{C7EEA671-93A3-4209-835C-F486D6C75CE5}"/>
+    <hyperlink ref="C198" r:id="rId182" xr:uid="{672DEFED-B052-47FE-8079-61ABE27315E4}"/>
+    <hyperlink ref="C199" r:id="rId183" xr:uid="{3CB79BB9-04A3-487D-9C44-26F59E61C231}"/>
+    <hyperlink ref="C200" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{A1587408-2374-4714-82B4-0F20B7C2C0F0}"/>
+    <hyperlink ref="C201" r:id="rId185" xr:uid="{05015474-D549-4C31-BC8E-9D692A6914B1}"/>
+    <hyperlink ref="C202" r:id="rId186" xr:uid="{B30E7036-1426-4E82-A189-DF1ADAE2C9DD}"/>
+    <hyperlink ref="C203" r:id="rId187" xr:uid="{8DF85468-E1A6-4289-ACB8-3DB6F09DDA71}"/>
+    <hyperlink ref="C204" r:id="rId188" xr:uid="{57A7D921-BFD2-41A6-B60F-C5A48EFE6EB4}"/>
+    <hyperlink ref="C205" r:id="rId189" xr:uid="{3EDEAB26-DFD3-401B-BCFC-9B3E185EE047}"/>
+    <hyperlink ref="C206" r:id="rId190" xr:uid="{745D3665-AC4C-4776-83A3-F5C519DD7872}"/>
+    <hyperlink ref="C207" r:id="rId191" xr:uid="{457137D5-40D4-4BEE-8C83-80B802EF1C32}"/>
+    <hyperlink ref="C208" r:id="rId192" xr:uid="{18589F84-0996-4721-8F7F-89B8D89DD4AB}"/>
+    <hyperlink ref="C209" r:id="rId193" xr:uid="{7CFDAAC2-3AF9-4A4B-942C-02004BF7EF6F}"/>
+    <hyperlink ref="C211" r:id="rId194" xr:uid="{105B7D31-AAC4-40AC-9C44-B873C831D298}"/>
+    <hyperlink ref="C212" r:id="rId195" xr:uid="{29A8DDC9-FE25-4530-B01F-32C0CDC1E296}"/>
+    <hyperlink ref="C213" r:id="rId196" xr:uid="{6DAC99FC-7DCF-4227-A98A-655335BD149C}"/>
+    <hyperlink ref="C214" r:id="rId197" xr:uid="{8A4E54EC-9D8F-414A-8725-FD7758C8D704}"/>
+    <hyperlink ref="C215" r:id="rId198" xr:uid="{90D5508C-CFC1-4B63-B88D-28293B23D7D4}"/>
+    <hyperlink ref="C216" r:id="rId199" xr:uid="{E6D43899-A5D9-4DB3-9DBF-367A2D5FF3B7}"/>
+    <hyperlink ref="C217" r:id="rId200" xr:uid="{A6B309B6-3E8D-4E3B-94A5-FACD383CDEE0}"/>
+    <hyperlink ref="C218" r:id="rId201" xr:uid="{46AEBAA2-3B8D-4F3E-B9DC-F24782BBDBA4}"/>
+    <hyperlink ref="C219" r:id="rId202" xr:uid="{8F242CE3-12B7-4DEE-8EAF-A77376D53223}"/>
+    <hyperlink ref="C220" r:id="rId203" xr:uid="{405B3AF6-C81E-450E-9B86-0657519402CA}"/>
+    <hyperlink ref="C221" r:id="rId204" xr:uid="{6A01962D-EB43-41B8-A1F5-B6CB803345F7}"/>
+    <hyperlink ref="C222" r:id="rId205" xr:uid="{6744B15F-E7B0-42A1-98D7-F74E8D7CC211}"/>
+    <hyperlink ref="C223" r:id="rId206" xr:uid="{C19B16AC-634C-4BC6-BA03-42AE0189938A}"/>
+    <hyperlink ref="C224" r:id="rId207" xr:uid="{C2285481-1E3D-4827-AE02-54596AAFAA9F}"/>
+    <hyperlink ref="C225" r:id="rId208" xr:uid="{3FFE98EE-F0F3-4091-8D96-FA08FA938BBC}"/>
+    <hyperlink ref="C226" r:id="rId209" xr:uid="{42609F56-205B-4030-AD5F-B3AFF5EC2CF6}"/>
+    <hyperlink ref="C227" r:id="rId210" xr:uid="{73A7E9B3-7788-4080-9FD8-CDB1FEA90FEA}"/>
+    <hyperlink ref="C228" r:id="rId211" xr:uid="{94038A79-E908-4C54-87EA-C05FFFD16A80}"/>
+    <hyperlink ref="C229" r:id="rId212" xr:uid="{0FDC3098-240B-4166-A73E-3DA1A21A5740}"/>
+    <hyperlink ref="C230" r:id="rId213" xr:uid="{A506BC79-182E-4FBB-9A4E-E04D4AE7184D}"/>
+    <hyperlink ref="C231" r:id="rId214" xr:uid="{EFB28000-6E1A-4DB4-929A-2C75072AA1B0}"/>
+    <hyperlink ref="C232" r:id="rId215" xr:uid="{9F819172-ED91-40A1-8F25-27F630DD97F6}"/>
+    <hyperlink ref="C233" r:id="rId216" xr:uid="{21053DD2-9E7B-49AE-8C96-53163614C753}"/>
+    <hyperlink ref="C235" r:id="rId217" xr:uid="{6F52D858-1416-4374-AD93-63AB4D37709C}"/>
+    <hyperlink ref="C236" r:id="rId218" xr:uid="{86B006A0-5C7B-4F01-8F1F-163985068A0B}"/>
+    <hyperlink ref="C237" r:id="rId219" xr:uid="{AE4B801F-7021-4AF9-9FF7-89F1016B49AC}"/>
+    <hyperlink ref="C238" r:id="rId220" xr:uid="{4DAB4188-C58B-4062-83AC-E179862DB796}"/>
+    <hyperlink ref="C239" r:id="rId221" xr:uid="{23D62743-14A6-4998-A2CE-FF4191327CEC}"/>
+    <hyperlink ref="C240" r:id="rId222" xr:uid="{C9E7B701-0F44-486E-B7CE-18338850C09C}"/>
+    <hyperlink ref="C241" r:id="rId223" xr:uid="{EDD39450-D1E4-4184-A7C6-ED024A456D2D}"/>
+    <hyperlink ref="C242" r:id="rId224" xr:uid="{3048BC5F-8F11-48D2-A552-9DD27C99243A}"/>
+    <hyperlink ref="C243" r:id="rId225" xr:uid="{1A74FA2B-F381-4F54-9507-418A6E3F0540}"/>
+    <hyperlink ref="C244" r:id="rId226" xr:uid="{B73B1975-7A36-48BE-9FD1-6A7A4D96FAC7}"/>
+    <hyperlink ref="C245" r:id="rId227" xr:uid="{DB6B8817-F714-4CE2-85E3-F0E28DA86891}"/>
+    <hyperlink ref="C246" r:id="rId228" xr:uid="{C1BA810B-A721-4F5B-A3D1-BB67615B9608}"/>
+    <hyperlink ref="C247" r:id="rId229" xr:uid="{74AA13D9-5324-4F87-81D1-B74FD962DBA1}"/>
+    <hyperlink ref="C248" r:id="rId230" xr:uid="{8F22D55A-E0B3-45EC-B384-D948BF358746}"/>
+    <hyperlink ref="C249" r:id="rId231" xr:uid="{F720A998-A836-4641-BD09-0925DFED654E}"/>
+    <hyperlink ref="C250" r:id="rId232" xr:uid="{1283F12A-CB68-4606-89CF-3E8B9174576E}"/>
+    <hyperlink ref="C251" r:id="rId233" xr:uid="{39D8E686-831F-43E1-9FF5-00E145EC06D2}"/>
+    <hyperlink ref="C252" r:id="rId234" xr:uid="{445B5F8C-9EB3-4178-945A-AE5DA125F0BC}"/>
+    <hyperlink ref="C253" r:id="rId235" xr:uid="{C3683B35-0CCB-441E-8A7C-CA1E484BAAE9}"/>
+    <hyperlink ref="C254" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{E4384C13-50C3-47BB-9BC2-5665EDDC7E1F}"/>
+    <hyperlink ref="C255" r:id="rId237" xr:uid="{B68209CD-36BD-408E-A594-E6EE2F5B81DF}"/>
+    <hyperlink ref="C256" r:id="rId238" xr:uid="{4C6B9EE7-7041-4D10-932C-6B8694ECE6B3}"/>
+    <hyperlink ref="C257" r:id="rId239" xr:uid="{BE4DB8FA-2B46-473A-9FB1-03EC89C5C42C}"/>
+    <hyperlink ref="C258" r:id="rId240" xr:uid="{4151255A-31A5-4D2A-A468-384866A00159}"/>
+    <hyperlink ref="C259" r:id="rId241" xr:uid="{AD83CB75-A9E0-43A7-96FF-93F5D79860E2}"/>
+    <hyperlink ref="C260" r:id="rId242" xr:uid="{3E3B6349-CD4E-4808-8452-C8E413DDC713}"/>
+    <hyperlink ref="C261" r:id="rId243" xr:uid="{8AD4BDA5-48F7-4D91-9560-B19818BC30A6}"/>
+    <hyperlink ref="C262" r:id="rId244" xr:uid="{8C940241-465F-4A41-86EB-611610711DC9}"/>
+    <hyperlink ref="C263" r:id="rId245" xr:uid="{57CB2D38-3CE4-45F5-A66E-161DFE56D2A5}"/>
+    <hyperlink ref="C264" r:id="rId246" xr:uid="{ACD87923-B665-4909-8463-15D4DDA1F84F}"/>
+    <hyperlink ref="C265" r:id="rId247" xr:uid="{B57C61A0-8C34-4678-AEFA-9B36D33BDEF7}"/>
+    <hyperlink ref="C266" r:id="rId248" xr:uid="{187A1C05-CC98-4DA9-88C8-8265F06EF00A}"/>
+    <hyperlink ref="C267" r:id="rId249" xr:uid="{10E926F7-53E5-4ACD-A9DC-2BBA903135C7}"/>
+    <hyperlink ref="C268" r:id="rId250" xr:uid="{7E301DB5-B1CF-4CAF-AFD9-EAA1531FF7BB}"/>
+    <hyperlink ref="C269" r:id="rId251" xr:uid="{C95F67BE-AA3D-4087-B1F5-18EF2AA9E415}"/>
+    <hyperlink ref="C272" r:id="rId252" xr:uid="{AB866262-DE18-4FFB-80D0-05A5A3D0DEA5}"/>
+    <hyperlink ref="C273" r:id="rId253" xr:uid="{12A8854F-6A90-4F8A-9717-D7C251778AF1}"/>
+    <hyperlink ref="C274" r:id="rId254" xr:uid="{8402E28F-1591-4319-8AE4-C1026DDE092B}"/>
+    <hyperlink ref="C275" r:id="rId255" xr:uid="{ED5A10F8-4BA6-4030-AC55-A4625B0F75A8}"/>
+    <hyperlink ref="C276" r:id="rId256" xr:uid="{C46F5DBA-F613-45DE-9A97-9F90B59E0F58}"/>
+    <hyperlink ref="C277" r:id="rId257" xr:uid="{19C3CD62-A9EF-4773-9A96-7933A9D6B934}"/>
+    <hyperlink ref="C278" r:id="rId258" xr:uid="{3B49A0C7-F52D-4FF0-BF77-B812F2C6C5B4}"/>
+    <hyperlink ref="C279" r:id="rId259" xr:uid="{9C4D1C4D-C143-4893-A4E5-86B674F1E3B4}"/>
+    <hyperlink ref="C280" r:id="rId260" xr:uid="{A390D9B1-EE67-4699-9546-E6C165A473D4}"/>
+    <hyperlink ref="C281" r:id="rId261" xr:uid="{2556BD99-0BA2-49A1-95DB-3351232562CE}"/>
+    <hyperlink ref="C282" r:id="rId262" xr:uid="{A0CC9DE0-1AF0-44C2-A478-7FB06CD39959}"/>
+    <hyperlink ref="C283" r:id="rId263" xr:uid="{5D4716E9-9CE1-4AA5-8908-2DF0DC9FCCAF}"/>
+    <hyperlink ref="C284" r:id="rId264" xr:uid="{52C2AACB-B11E-4173-9CFA-3DCACF284921}"/>
+    <hyperlink ref="C285" r:id="rId265" xr:uid="{924FDDD4-9ECC-4852-A7DC-D4FC7AB0EC56}"/>
+    <hyperlink ref="C286" r:id="rId266" xr:uid="{17857781-B8B7-4875-A943-6FBFE9EC12FC}"/>
+    <hyperlink ref="C287" r:id="rId267" xr:uid="{0CFB70DB-55A6-4164-A445-2976F2EFF3CA}"/>
+    <hyperlink ref="C288" r:id="rId268" xr:uid="{0D3910E0-305D-4EF2-B8CB-D7F0EBA9B93F}"/>
+    <hyperlink ref="C289" r:id="rId269" xr:uid="{578E8AF7-2AB6-4083-ACAF-1B4D65AEBBD3}"/>
+    <hyperlink ref="C290" r:id="rId270" xr:uid="{2933141E-1355-467C-92F8-FD6501456372}"/>
+    <hyperlink ref="C293" r:id="rId271" xr:uid="{742DE859-BA92-42BE-8194-78D9F62CBD4D}"/>
+    <hyperlink ref="C294" r:id="rId272" xr:uid="{DAE7FE95-12B0-49ED-81ED-2CA4F51A5CC7}"/>
+    <hyperlink ref="C295" r:id="rId273" xr:uid="{E34E4976-71B1-4DEF-8718-637470583144}"/>
+    <hyperlink ref="C296" r:id="rId274" xr:uid="{6678C76E-585A-47D9-B93E-A145D59CE3F1}"/>
+    <hyperlink ref="C297" r:id="rId275" xr:uid="{DD0F6DD2-3E04-477D-90C5-E83937CB3D47}"/>
+    <hyperlink ref="C298" r:id="rId276" xr:uid="{2F1427E1-DEE9-4742-9834-9338524FEEEC}"/>
+    <hyperlink ref="C299" r:id="rId277" xr:uid="{9674256A-2DB0-4CED-A2B4-8F8DA9EF8A08}"/>
+    <hyperlink ref="C300" r:id="rId278" xr:uid="{4986DD15-06EC-41DB-A5BC-C54D2203797D}"/>
+    <hyperlink ref="C301" r:id="rId279" xr:uid="{7BDF3051-0E87-44F2-AC78-D5901DFEE8CE}"/>
+    <hyperlink ref="C302" r:id="rId280" xr:uid="{4B549302-6EAC-4A22-9E05-C15FBA7C3F20}"/>
+    <hyperlink ref="C303" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{F5F0323D-AD3F-43E5-AB28-47D1497435DD}"/>
+    <hyperlink ref="C304" r:id="rId282" xr:uid="{A2510DFA-B126-4376-8471-121E699F38F2}"/>
+    <hyperlink ref="C305" r:id="rId283" xr:uid="{A84EF3DD-A53F-4313-B694-A88D251F28E0}"/>
+    <hyperlink ref="C306" r:id="rId284" xr:uid="{D9FFA22B-4D6C-477F-B6AF-C84673166D2D}"/>
+    <hyperlink ref="C307" r:id="rId285" xr:uid="{BA59972B-E5A0-45DD-A9E0-D25C01FDA192}"/>
+    <hyperlink ref="C308" r:id="rId286" xr:uid="{E50C9E5E-28A0-42F3-BD6C-191224276CE8}"/>
+    <hyperlink ref="C309" r:id="rId287" xr:uid="{CD6BCAF7-FE66-4F83-92AC-8BA8B028CE34}"/>
+    <hyperlink ref="C310" r:id="rId288" xr:uid="{BFD77835-3846-4BE2-9E4A-0DA97E2C98AC}"/>
+    <hyperlink ref="C311" r:id="rId289" xr:uid="{D273A2A1-9BA5-4D7F-B5F6-75C37785689A}"/>
+    <hyperlink ref="C312" r:id="rId290" xr:uid="{99D59E05-37E3-4287-94F1-8C742FED7D13}"/>
+    <hyperlink ref="C313" r:id="rId291" xr:uid="{FF86087F-039B-4A9D-92A8-D4E2E6B25AB9}"/>
+    <hyperlink ref="C314" r:id="rId292" xr:uid="{D55CA06D-9F7E-4637-947D-3A6268FA8A29}"/>
+    <hyperlink ref="C315" r:id="rId293" xr:uid="{CE69F24F-756E-42BC-93D9-B86BEA2B70C8}"/>
+    <hyperlink ref="C316" r:id="rId294" xr:uid="{63FF4134-2459-4D4B-8C6D-08D6A34BF35C}"/>
+    <hyperlink ref="C317" r:id="rId295" xr:uid="{9368502C-E57D-4F6E-B8BB-1B318BBE53F1}"/>
+    <hyperlink ref="C318" r:id="rId296" xr:uid="{7D8FD617-E3D9-4964-97BE-C854D2CD3EBE}"/>
+    <hyperlink ref="C319" r:id="rId297" xr:uid="{3BC90449-2691-43DE-9ED1-4E681DBBBEBF}"/>
+    <hyperlink ref="C320" r:id="rId298" xr:uid="{899E8A78-7200-473C-86CB-2B2E61F2B5BD}"/>
+    <hyperlink ref="C321" r:id="rId299" xr:uid="{03F2E852-E35F-48C6-AE36-CD954E865EED}"/>
+    <hyperlink ref="C322" r:id="rId300" xr:uid="{7CFF8BF0-B721-438C-8905-5E6EC0239A6C}"/>
+    <hyperlink ref="C323" r:id="rId301" xr:uid="{A1B08672-9CF2-4B7E-8658-8E995F56CCA8}"/>
+    <hyperlink ref="C324" r:id="rId302" xr:uid="{A919D571-C3B0-46FD-9378-994538EAB139}"/>
+    <hyperlink ref="C325" r:id="rId303" xr:uid="{C13D5FA5-61D4-4760-97A6-F54ECE9F19E1}"/>
+    <hyperlink ref="C326" r:id="rId304" xr:uid="{6E6770F5-27F9-4AF4-860B-282DD3972A22}"/>
+    <hyperlink ref="C327" r:id="rId305" xr:uid="{309B22FA-0966-492A-8046-99784B472311}"/>
+    <hyperlink ref="C328" r:id="rId306" xr:uid="{F63D72CA-39F4-4610-B2FA-403F1D170778}"/>
+    <hyperlink ref="C329" r:id="rId307" xr:uid="{E632EFBD-D5F4-4481-831D-312FC49AB7C1}"/>
+    <hyperlink ref="C330" r:id="rId308" xr:uid="{A10AB944-045E-4A97-9ED2-569E1834C4C4}"/>
+    <hyperlink ref="C333" r:id="rId309" xr:uid="{759DC788-EECB-4373-87D6-99898DD6F64D}"/>
+    <hyperlink ref="C334" r:id="rId310" xr:uid="{4743D9A2-1ECA-44CC-9738-57C99B51BAE0}"/>
+    <hyperlink ref="C335" r:id="rId311" xr:uid="{78FC6E83-36FF-4979-A8EB-0DDEE2C2F2C7}"/>
+    <hyperlink ref="C336" r:id="rId312" xr:uid="{EDA7C5E6-DCBD-4DC9-AC72-D5A7F37E22BB}"/>
+    <hyperlink ref="C337" r:id="rId313" xr:uid="{C1221B4F-750B-4AB2-9236-8319557C7A2F}"/>
+    <hyperlink ref="C338" r:id="rId314" xr:uid="{5DC8D135-E64B-49E9-AE23-6D7DA22355C7}"/>
+    <hyperlink ref="C339" r:id="rId315" xr:uid="{31F6879E-27AA-475E-8CED-845F888BBFEB}"/>
+    <hyperlink ref="C340" r:id="rId316" xr:uid="{EA421AE0-79D8-4343-8EEB-F887F9751C4B}"/>
+    <hyperlink ref="C341" r:id="rId317" xr:uid="{D644EB97-EBDC-4FA3-ACE1-B28DD6C05E55}"/>
+    <hyperlink ref="C342" r:id="rId318" xr:uid="{3EC83CC8-5838-4967-AC86-248A011D6504}"/>
+    <hyperlink ref="C343" r:id="rId319" xr:uid="{B0DC44FF-86CB-4A09-AEAD-6DD0246928A7}"/>
+    <hyperlink ref="C344" r:id="rId320" xr:uid="{B5C69993-7A6C-4363-BFAD-B83AF8BC4BBE}"/>
+    <hyperlink ref="C345" r:id="rId321" xr:uid="{5EA7BD5C-7A68-4288-908B-F23F141CB7B1}"/>
+    <hyperlink ref="C346" r:id="rId322" xr:uid="{32FD05DE-9026-413D-86CD-6B9730D04B12}"/>
+    <hyperlink ref="C347" r:id="rId323" xr:uid="{9FAE04B3-873C-4C35-8E23-CD03FFD1FC9B}"/>
+    <hyperlink ref="C348" r:id="rId324" xr:uid="{072163CD-49A1-43CD-824F-409EFDF504F4}"/>
+    <hyperlink ref="C349" r:id="rId325" xr:uid="{18547DD0-CDD7-4091-8267-E88E4D9AD5A4}"/>
+    <hyperlink ref="C350" r:id="rId326" xr:uid="{B571FCA3-A430-403B-8179-F2DB3F0BA112}"/>
+    <hyperlink ref="C353" r:id="rId327" xr:uid="{0F1629F0-6623-45ED-ADD5-4A8D7304709D}"/>
+    <hyperlink ref="C354" r:id="rId328" xr:uid="{392C2A70-17D0-4DFF-BB42-1CEE390EC353}"/>
+    <hyperlink ref="C355" r:id="rId329" xr:uid="{BC10CEC8-D2DE-4A2A-8A3D-3A359F63ABBA}"/>
+    <hyperlink ref="C356" r:id="rId330" xr:uid="{FFCFCB6E-C1B5-43CC-B500-8835A9EEA6BA}"/>
+    <hyperlink ref="C357" r:id="rId331" xr:uid="{9AECD489-26E1-492E-BA7C-2A19EE79B723}"/>
+    <hyperlink ref="C358" r:id="rId332" xr:uid="{E6A36607-360E-49CB-A20C-EDF36D2AAA30}"/>
+    <hyperlink ref="C359" r:id="rId333" xr:uid="{03095C0C-C845-4955-8896-D395271774C7}"/>
+    <hyperlink ref="C360" r:id="rId334" xr:uid="{2CFFFDA1-45FA-4E2F-B8FA-957DCEDAE337}"/>
+    <hyperlink ref="C361" r:id="rId335" xr:uid="{799A110D-63A9-4399-ABDD-3B490F58D891}"/>
+    <hyperlink ref="C362" r:id="rId336" xr:uid="{1D686559-4A70-4ADD-BC12-F75968BFECE5}"/>
+    <hyperlink ref="C363" r:id="rId337" xr:uid="{8D28D172-7965-4EDC-ACD6-8F95D770D90F}"/>
+    <hyperlink ref="C364" r:id="rId338" xr:uid="{F838F109-9B6A-450E-9E31-D16CF0014A88}"/>
+    <hyperlink ref="C365" r:id="rId339" xr:uid="{B0ACF2D2-CC9C-4A93-9AC0-23B8B70D8B39}"/>
+    <hyperlink ref="C366" r:id="rId340" xr:uid="{425A95A5-0534-40E7-9034-2E25942FA173}"/>
+    <hyperlink ref="C367" r:id="rId341" xr:uid="{E16A2AC8-4A4F-4187-9445-78DE1FD4B6AB}"/>
+    <hyperlink ref="C368" r:id="rId342" xr:uid="{30F30548-0DC4-47EA-930F-A49C687A342E}"/>
+    <hyperlink ref="C369" r:id="rId343" xr:uid="{857F7B04-6C89-4BF3-B42E-2EA53EBDCE31}"/>
+    <hyperlink ref="C370" r:id="rId344" xr:uid="{457B9FE4-5A0E-4D96-8978-2F16BF6804AE}"/>
+    <hyperlink ref="C371" r:id="rId345" xr:uid="{82287027-516A-4A4E-9C0F-DD9E1F1C6F57}"/>
+    <hyperlink ref="C372" r:id="rId346" xr:uid="{71C055E2-9703-46FB-B45E-B3783EC84D94}"/>
+    <hyperlink ref="C373" r:id="rId347" xr:uid="{DFDE4089-02B9-4E4F-96EB-285E20D59374}"/>
+    <hyperlink ref="C374" r:id="rId348" xr:uid="{26053E38-5504-47C4-9FC4-A409519B789A}"/>
+    <hyperlink ref="C375" r:id="rId349" xr:uid="{ABE4818D-3EDE-42FA-B7E2-69719EF46E38}"/>
+    <hyperlink ref="C376" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{EEA29227-2750-4CDB-B618-A261B5D45E8B}"/>
+    <hyperlink ref="C377" r:id="rId351" xr:uid="{9CBD51BB-6AFA-47FE-B108-7ACF21149994}"/>
+    <hyperlink ref="C378" r:id="rId352" xr:uid="{2CE2853B-F2DB-4047-81BF-D09F864DF55F}"/>
+    <hyperlink ref="C379" r:id="rId353" xr:uid="{056C1917-6BC7-4AB1-989B-9209CC627955}"/>
+    <hyperlink ref="C380" r:id="rId354" xr:uid="{4105134F-C2B5-48E7-96BD-66D8801448C7}"/>
+    <hyperlink ref="C381" r:id="rId355" xr:uid="{DC4B6655-07E5-4771-9DA3-40F3E3F18D59}"/>
+    <hyperlink ref="C382" r:id="rId356" xr:uid="{BE1C69EE-9B33-4EBE-831E-4B7956B0F120}"/>
+    <hyperlink ref="C383" r:id="rId357" xr:uid="{8EFB4657-829A-4C23-AB15-EEB8679C1DCA}"/>
+    <hyperlink ref="C384" r:id="rId358" xr:uid="{82FEA0A1-BF26-4877-8C87-6A1732EFE0CB}"/>
+    <hyperlink ref="C385" r:id="rId359" xr:uid="{29AB8E14-EACE-4280-9F6B-9CD882E0774F}"/>
+    <hyperlink ref="C386" r:id="rId360" xr:uid="{F3796245-79ED-4A49-B0EA-D1980B41BA29}"/>
+    <hyperlink ref="C387" r:id="rId361" xr:uid="{36F01E8B-79F1-47B1-A761-A93DF6142DEE}"/>
+    <hyperlink ref="C388" r:id="rId362" xr:uid="{B7F044CC-DB21-4051-9D08-E5B6C57A3D98}"/>
+    <hyperlink ref="C389" r:id="rId363" xr:uid="{4D34F375-9808-49D1-912A-B89D1083BA19}"/>
+    <hyperlink ref="C390" r:id="rId364" xr:uid="{FEF205C3-1150-4A8E-B72F-6FAF189CAA41}"/>
+    <hyperlink ref="C391" r:id="rId365" xr:uid="{9CFB4EF7-DA84-4E46-A267-B26F228D4C84}"/>
+    <hyperlink ref="C392" r:id="rId366" xr:uid="{E7DF363E-819A-4B60-B024-A7B194733259}"/>
+    <hyperlink ref="C393" r:id="rId367" xr:uid="{C737F330-65B3-44F4-BA70-28E86D44D21E}"/>
+    <hyperlink ref="C394" r:id="rId368" xr:uid="{DE382BE9-18D4-4A7F-9DE3-2414E06744C2}"/>
+    <hyperlink ref="C395" r:id="rId369" xr:uid="{C4519722-E22C-4661-8894-869453B37DED}"/>
+    <hyperlink ref="C396" r:id="rId370" xr:uid="{4924DACC-DCC2-4261-92F0-15C97D0CD99B}"/>
+    <hyperlink ref="C399" r:id="rId371" xr:uid="{0BA38D16-AA8D-414E-83AE-0F05F763213A}"/>
+    <hyperlink ref="C400" r:id="rId372" xr:uid="{2499267C-1DB5-4629-B1E5-E6F44B8F7AD5}"/>
+    <hyperlink ref="C401" r:id="rId373" xr:uid="{ED7D2BFE-ECD1-4FCA-98BC-8E1FEF2BB82F}"/>
+    <hyperlink ref="C402" r:id="rId374" xr:uid="{F04FC3EF-FC06-4C22-8823-B32C2FEC192A}"/>
+    <hyperlink ref="C403" r:id="rId375" xr:uid="{48D25BBD-06A2-4E82-97ED-CA72CDFD996D}"/>
+    <hyperlink ref="C404" r:id="rId376" xr:uid="{27E016B6-B43E-4A2D-ADCE-3EDFD1E220C5}"/>
+    <hyperlink ref="C407" r:id="rId377" xr:uid="{7D5EA0FD-EF2C-4E9C-AB22-2E4928D6E8E3}"/>
+    <hyperlink ref="C408" r:id="rId378" xr:uid="{E81EF052-83DD-42DF-AD3A-B181F612D090}"/>
+    <hyperlink ref="C409" r:id="rId379" xr:uid="{597BFC3B-A1D0-4D9D-A4E4-BB204E48E6D9}"/>
+    <hyperlink ref="C410" r:id="rId380" xr:uid="{06292338-9715-49BF-B24E-C062A4B98967}"/>
+    <hyperlink ref="C411" r:id="rId381" xr:uid="{AABD486F-671A-45EA-94FC-426A7339C8BE}"/>
+    <hyperlink ref="C412" r:id="rId382" xr:uid="{F8A3BDA4-A685-4A44-B9B3-2A32DB6DC3A4}"/>
+    <hyperlink ref="C413" r:id="rId383" xr:uid="{8C163BE0-B5BF-4781-9565-61FEED5922F7}"/>
+    <hyperlink ref="C414" r:id="rId384" xr:uid="{F41D8FD0-FB5F-4580-B90A-8C479AE16EC1}"/>
+    <hyperlink ref="C415" r:id="rId385" xr:uid="{94350FAA-7F97-4827-9CED-5AD4CEA8679C}"/>
+    <hyperlink ref="C416" r:id="rId386" xr:uid="{E52C737C-DA3E-4BC9-B844-A99833E8CB6C}"/>
+    <hyperlink ref="C417" r:id="rId387" xr:uid="{82966C76-85B9-4130-8C52-0040F0EC34EC}"/>
+    <hyperlink ref="C418" r:id="rId388" xr:uid="{E73B4A76-CA39-4DF3-B2EC-92B2E04293B3}"/>
+    <hyperlink ref="C419" r:id="rId389" xr:uid="{DCE1C786-A2D8-4E29-B77E-0EE8A2D5E6E0}"/>
+    <hyperlink ref="C420" r:id="rId390" xr:uid="{F2A31F79-4B82-47BD-A408-34D6227AACC4}"/>
+    <hyperlink ref="C421" r:id="rId391" xr:uid="{741FA9C1-5A76-43E7-A1CF-CB1848054F07}"/>
+    <hyperlink ref="C422" r:id="rId392" xr:uid="{040937C7-BC60-42D9-BBAA-9D3DCCDA4C1B}"/>
+    <hyperlink ref="C423" r:id="rId393" xr:uid="{80C3D2C2-EECC-4990-9A2C-744469CAC8B1}"/>
+    <hyperlink ref="C424" r:id="rId394" xr:uid="{B54FC0A7-39A3-47CD-A04A-32797C39BBCF}"/>
+    <hyperlink ref="C425" r:id="rId395" xr:uid="{5614CEBB-97B7-40E3-A368-F5C5A001A141}"/>
+    <hyperlink ref="C426" r:id="rId396" xr:uid="{1179795D-6652-40C3-94BD-D8961A2123FA}"/>
+    <hyperlink ref="C427" r:id="rId397" xr:uid="{937AE1A9-0F44-43A4-8BED-B75653B6612C}"/>
+    <hyperlink ref="C428" r:id="rId398" xr:uid="{E34087DA-EB44-4352-92A0-1ED4DA5B6EB1}"/>
+    <hyperlink ref="C429" r:id="rId399" xr:uid="{97636CA4-9F30-4B36-B086-021FC4789C87}"/>
+    <hyperlink ref="C430" r:id="rId400" xr:uid="{7A3F67FB-9EB1-4E2E-B769-7B1DFAA2815E}"/>
+    <hyperlink ref="C431" r:id="rId401" xr:uid="{8D639D8A-AD95-49E9-9AB9-C9F8510FAE6D}"/>
+    <hyperlink ref="C432" r:id="rId402" xr:uid="{42B3E0EA-4AC4-4CEC-A577-C990B2689A41}"/>
+    <hyperlink ref="C433" r:id="rId403" xr:uid="{85F9422B-2B60-4BAF-89E3-FE1DBEACD49C}"/>
+    <hyperlink ref="C434" r:id="rId404" xr:uid="{909E019E-E76A-471E-8FF6-42CF48E9FCCA}"/>
+    <hyperlink ref="C435" r:id="rId405" xr:uid="{27908552-4881-4AC9-965E-6F5D78CDD86A}"/>
+    <hyperlink ref="C436" r:id="rId406" xr:uid="{595ADD6C-B836-4BCA-9D47-4B4C81E116C6}"/>
+    <hyperlink ref="C437" r:id="rId407" xr:uid="{82D6FDFA-3F5D-44EC-B9EA-75849448DC64}"/>
+    <hyperlink ref="C438" r:id="rId408" xr:uid="{E8F28F23-FC32-493B-B446-5B8D5BA8CEEE}"/>
+    <hyperlink ref="C439" r:id="rId409" xr:uid="{504A194B-1C78-4ACF-9140-0F9D693516F2}"/>
+    <hyperlink ref="C440" r:id="rId410" xr:uid="{D0C96A6F-12D6-4605-A549-85DCB2F4E4AD}"/>
+    <hyperlink ref="C441" r:id="rId411" xr:uid="{7BA0180D-F93D-47C6-9AC3-D2B18FB3BEA1}"/>
+    <hyperlink ref="C442" r:id="rId412" xr:uid="{FDD4512F-D7A5-44C1-B4B4-B043FE2E6F28}"/>
+    <hyperlink ref="C443" r:id="rId413" xr:uid="{57803F21-16BB-4420-90B1-C904066D37D3}"/>
+    <hyperlink ref="C444" r:id="rId414" xr:uid="{1421A13C-1FAD-4C58-B9B0-726834000829}"/>
+    <hyperlink ref="C445" r:id="rId415" xr:uid="{116942C1-8DE3-4E4E-9152-10FF31FC646D}"/>
+    <hyperlink ref="C446" r:id="rId416" xr:uid="{6FF69242-A261-4949-B246-067AC9F16AC4}"/>
+    <hyperlink ref="C447" r:id="rId417" xr:uid="{55CFA2D1-001A-40CE-A218-EF3B90295E5E}"/>
+    <hyperlink ref="C448" r:id="rId418" xr:uid="{DC99469C-4C8F-4FCC-AA2E-269828B325A2}"/>
+    <hyperlink ref="C449" r:id="rId419" xr:uid="{CF263036-9960-4907-A307-3D7E56080F2F}"/>
+    <hyperlink ref="C450" r:id="rId420" xr:uid="{CB55F3B9-3094-49AF-856C-FD9F575439A7}"/>
+    <hyperlink ref="C451" r:id="rId421" xr:uid="{A1B85B72-1849-4D06-B19A-23FF2ED3D4F5}"/>
+    <hyperlink ref="C452" r:id="rId422" xr:uid="{E002429C-C55C-4C02-997E-189C8F452493}"/>
+    <hyperlink ref="C453" r:id="rId423" xr:uid="{7C4783B3-2D44-4A1F-BBBD-F03E51AA7BFC}"/>
+    <hyperlink ref="C454" r:id="rId424" xr:uid="{8B122BDE-623F-43CD-A31D-1E77AEB77979}"/>
+    <hyperlink ref="C455" r:id="rId425" xr:uid="{13BB15E2-E5A1-477D-A02D-8B812214AA29}"/>
+    <hyperlink ref="C456" r:id="rId426" xr:uid="{5DBDDA45-C4F6-4E17-AD03-5167BDBF280A}"/>
+    <hyperlink ref="C457" r:id="rId427" xr:uid="{83353729-5FDE-4524-8E5B-45699432BBEA}"/>
+    <hyperlink ref="C458" r:id="rId428" xr:uid="{93616FFF-F202-4A4A-AF3D-6A2075502D34}"/>
+    <hyperlink ref="C459" r:id="rId429" xr:uid="{FB4FFB7F-E0BC-40EE-97ED-2C9A155734A6}"/>
+    <hyperlink ref="C460" r:id="rId430" xr:uid="{4AF354C8-9EE0-4530-8C87-28BAD915BDEF}"/>
+    <hyperlink ref="C461" r:id="rId431" xr:uid="{AC93B941-4FE1-4020-94E2-9CFB4C13A869}"/>
+    <hyperlink ref="C462" r:id="rId432" xr:uid="{DFA934FF-C11B-459F-901B-319EF2A7113A}"/>
+    <hyperlink ref="C463" r:id="rId433" xr:uid="{60ACABB5-2E07-40AE-96BB-A14357BDA0C1}"/>
+    <hyperlink ref="C464" r:id="rId434" xr:uid="{6FD7694C-735B-4E58-8172-E613FC7644C6}"/>
+    <hyperlink ref="C465" r:id="rId435" xr:uid="{2EACD042-C39F-4C0E-8B70-29830A35EE18}"/>
+    <hyperlink ref="C466" r:id="rId436" xr:uid="{8BE8983C-3048-47CC-A39E-0C8932165975}"/>
+    <hyperlink ref="C467" r:id="rId437" xr:uid="{5ABF1225-5B3A-4FEE-9CFD-7C56B7C5772A}"/>
+    <hyperlink ref="C469" r:id="rId438" xr:uid="{42351F60-9D09-43AC-8D62-720195846E5B}"/>
+    <hyperlink ref="C478" r:id="rId439" xr:uid="{2C0FBC16-EA67-4D88-B16B-9EFB56EF331B}"/>
+    <hyperlink ref="C477" r:id="rId440" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{A350EFE0-E157-495B-AA34-EB18811B0741}"/>
+    <hyperlink ref="C476" r:id="rId441" xr:uid="{D11E7D04-D141-44A3-A6B7-A3E586ED1A2E}"/>
+    <hyperlink ref="C475" r:id="rId442" xr:uid="{632FC8E2-AF6E-456F-AEC3-89E5365422AA}"/>
+    <hyperlink ref="C474" r:id="rId443" xr:uid="{F8100F35-B6BD-44CE-B87E-C5A8235C53FA}"/>
+    <hyperlink ref="C473" r:id="rId444" xr:uid="{1CB38442-4267-4714-8538-69858CE95771}"/>
+    <hyperlink ref="C472" r:id="rId445" xr:uid="{DBB1282E-A93A-425C-B747-356067BD1BFE}"/>
+    <hyperlink ref="C471" r:id="rId446" xr:uid="{58B0412C-7E89-4305-86DE-0F7079CFD01C}"/>
+    <hyperlink ref="C470" r:id="rId447" xr:uid="{F273482F-44F4-43EF-84FA-C2D32792A473}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dsa questions babbar.xlsx
+++ b/dsa questions babbar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\babbar sheet sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E40683-FFB4-4360-AB08-CE876B896E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794B9B3-1790-4E48-8D80-CC8396CCBE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1936,15 +1936,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1968,6 +1959,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2256,8 +2256,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -2296,8 +2296,8 @@
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="63" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:4" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
         <v>485</v>
       </c>
     </row>
@@ -2742,8 +2742,8 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="64" t="s">
+    <row r="44" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="75" t="s">
         <v>489</v>
       </c>
     </row>
@@ -2872,8 +2872,8 @@
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45"/>
-    <row r="57" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="65" t="s">
+    <row r="57" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="76" t="s">
         <v>490</v>
       </c>
     </row>
@@ -3198,16 +3198,17 @@
       </c>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="9">
+    <row r="85" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="13">
         <v>28</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="14" t="s">
         <v>78</v>
       </c>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="13">
@@ -7860,8 +7861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F90590-BFBE-4C68-82AE-A25E3E5CE8C8}">
   <dimension ref="A1:AA1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -7875,25 +7876,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="39"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="71" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73" t="s">
         <v>463</v>
       </c>
       <c r="C3" s="41"/>
@@ -8460,7 +8461,7 @@
     <row r="53" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="35"/>
     </row>
-    <row r="54" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="39">
         <v>1</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="39">
         <v>2</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="39">
         <v>3</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="39">
         <v>4</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="39">
         <v>5</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="39">
         <v>6</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="39">
         <v>7</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="39">
         <v>8</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="39">
         <v>9</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="39">
         <v>10</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="39">
         <v>11</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="39">
         <v>12</v>
       </c>
@@ -8592,7 +8593,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="39">
         <v>13</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="39">
         <v>14</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="39">
         <v>15</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="39">
         <v>16</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="39">
         <v>17</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="39">
         <v>18</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="39">
         <v>19</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="39">
         <v>20</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="66" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="39">
         <v>21</v>
       </c>
@@ -8794,10 +8795,10 @@
       <c r="A84" s="13">
         <v>32</v>
       </c>
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="68" t="s">
+      <c r="C84" s="65" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8805,10 +8806,10 @@
       <c r="A85" s="13">
         <v>33</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="65" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8816,10 +8817,10 @@
       <c r="A86" s="13">
         <v>34</v>
       </c>
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="68" t="s">
+      <c r="C86" s="65" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8827,10 +8828,10 @@
       <c r="A87" s="13">
         <v>35</v>
       </c>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="68" t="s">
+      <c r="C87" s="65" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8838,10 +8839,10 @@
       <c r="A88" s="13">
         <v>36</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="68" t="s">
+      <c r="C88" s="65" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8849,10 +8850,10 @@
       <c r="A89" s="13">
         <v>37</v>
       </c>
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="65" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8860,10 +8861,10 @@
       <c r="A90" s="13">
         <v>38</v>
       </c>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="68" t="s">
+      <c r="C90" s="65" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8871,10 +8872,10 @@
       <c r="A91" s="13">
         <v>39</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="65" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8882,10 +8883,10 @@
       <c r="A92" s="13">
         <v>40</v>
       </c>
-      <c r="B92" s="67" t="s">
+      <c r="B92" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="68" t="s">
+      <c r="C92" s="65" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8893,10 +8894,10 @@
       <c r="A93" s="13">
         <v>41</v>
       </c>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="68" t="s">
+      <c r="C93" s="65" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8904,17 +8905,17 @@
       <c r="A94" s="13">
         <v>42</v>
       </c>
-      <c r="B94" s="67" t="s">
+      <c r="B94" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="68" t="s">
+      <c r="C94" s="65" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="13"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="68"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="65"/>
     </row>
     <row r="96" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="97" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">

--- a/dsa questions babbar.xlsx
+++ b/dsa questions babbar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\babbar sheet sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794B9B3-1790-4E48-8D80-CC8396CCBE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898279E2-DB63-476A-868A-6908E22F24AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="official" sheetId="1" r:id="rId1"/>
@@ -2256,8 +2256,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -3139,16 +3139,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="9">
+    <row r="80" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="13">
         <v>23</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="18">
@@ -7861,8 +7862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F90590-BFBE-4C68-82AE-A25E3E5CE8C8}">
   <dimension ref="A1:AA1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>

--- a/dsa questions babbar.xlsx
+++ b/dsa questions babbar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\babbar sheet sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898279E2-DB63-476A-868A-6908E22F24AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF4FA83-4E84-4070-8676-B8D2A86AC542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="5400" yWindow="24" windowWidth="17640" windowHeight="12216" tabRatio="885" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="official" sheetId="1" r:id="rId1"/>
@@ -1802,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1970,6 +1970,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2256,8 +2267,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC485"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -3117,27 +3128,29 @@
       </c>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="9">
+    <row r="78" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="77">
         <v>21</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="79" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" s="9">
+      <c r="D78" s="80"/>
+    </row>
+    <row r="79" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="13">
         <v>22</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="14" t="s">
         <v>72</v>
       </c>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="13">
@@ -3334,7 +3347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="9">
         <v>40</v>
       </c>
@@ -3345,7 +3358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="9">
         <v>41</v>
       </c>
@@ -3356,67 +3369,72 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45"/>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45"/>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B100" s="27"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="9">
+    <row r="101" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="18">
         <v>1</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="9">
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="18">
         <v>2</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="9">
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="18">
         <v>3</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="9">
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="18">
         <v>4</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="9">
+      <c r="D104" s="20"/>
+    </row>
+    <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="18">
         <v>5</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D105" s="20"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="9">
         <v>6</v>
       </c>
@@ -3427,7 +3445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="9">
         <v>7</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="9">
         <v>8</v>
       </c>
@@ -3449,7 +3467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="9">
         <v>9</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="9">
         <v>10</v>
       </c>
@@ -3471,7 +3489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="9">
         <v>11</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="9">
         <v>12</v>
       </c>
@@ -7862,8 +7880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F90590-BFBE-4C68-82AE-A25E3E5CE8C8}">
   <dimension ref="A1:AA1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>

--- a/dsa questions babbar.xlsx
+++ b/dsa questions babbar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\babbar sheet sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF4FA83-4E84-4070-8676-B8D2A86AC542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC4959F-5561-4C0F-9BCF-93C297B4411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="24" windowWidth="17640" windowHeight="12216" tabRatio="885" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="official" sheetId="1" r:id="rId1"/>
@@ -1802,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1961,6 +1961,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1970,17 +1971,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2267,8 +2257,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC485"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -2307,8 +2297,8 @@
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:4" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="75" t="s">
         <v>485</v>
       </c>
     </row>
@@ -2753,8 +2743,8 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="75" t="s">
+    <row r="44" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="76" t="s">
         <v>489</v>
       </c>
     </row>
@@ -2883,8 +2873,8 @@
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45"/>
-    <row r="57" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="76" t="s">
+    <row r="57" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="77" t="s">
         <v>490</v>
       </c>
     </row>
@@ -3128,17 +3118,16 @@
       </c>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="77">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="9">
         <v>21</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="79" t="s">
+      <c r="C78" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="80"/>
     </row>
     <row r="79" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="13">
@@ -3248,16 +3237,17 @@
       </c>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="9">
+    <row r="88" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="13">
         <v>31</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="14" t="s">
         <v>81</v>
       </c>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="9">
@@ -7880,8 +7870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F90590-BFBE-4C68-82AE-A25E3E5CE8C8}">
   <dimension ref="A1:AA1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>

--- a/dsa questions babbar.xlsx
+++ b/dsa questions babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\babbar sheet sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC4959F-5561-4C0F-9BCF-93C297B4411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC7E2A-BE8F-4D06-9CF9-DA072817FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2257,8 +2257,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -3249,16 +3249,17 @@
       </c>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" s="9">
+    <row r="89" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="13">
         <v>32</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="14" t="s">
         <v>82</v>
       </c>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="9">
@@ -7871,7 +7872,7 @@
   <dimension ref="A1:AA1011"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -8800,25 +8801,25 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="13">
+    <row r="84" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="39">
         <v>32</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="65" t="s">
+      <c r="C84" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="13">
+    <row r="85" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="39">
         <v>33</v>
       </c>
-      <c r="B85" s="64" t="s">
+      <c r="B85" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="41" t="s">
         <v>82</v>
       </c>
     </row>

--- a/dsa questions babbar.xlsx
+++ b/dsa questions babbar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\babbar sheet sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC7E2A-BE8F-4D06-9CF9-DA072817FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3612C95-3820-4B46-8196-7F6D06FA793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="official" sheetId="1" r:id="rId1"/>
@@ -1727,7 +1727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1788,6 +1788,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1802,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1971,6 +1977,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2257,8 +2274,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -3261,49 +3278,53 @@
       </c>
       <c r="D89" s="17"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" s="9">
+    <row r="90" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="13">
         <v>33</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="9">
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="1:4" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="78">
         <v>34</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="80" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="9">
+      <c r="D91" s="81"/>
+    </row>
+    <row r="92" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="13">
         <v>35</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="9">
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="18">
         <v>36</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="22" t="s">
         <v>86</v>
       </c>
+      <c r="D93" s="20"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="9">
@@ -7871,8 +7892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F90590-BFBE-4C68-82AE-A25E3E5CE8C8}">
   <dimension ref="A1:AA1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.2" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -8823,47 +8844,47 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="13">
+    <row r="86" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="39">
         <v>34</v>
       </c>
-      <c r="B86" s="64" t="s">
+      <c r="B86" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="65" t="s">
+      <c r="C86" s="41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="13">
+    <row r="87" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="39">
         <v>35</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="65" t="s">
+      <c r="C87" s="41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="13">
+    <row r="88" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="39">
         <v>36</v>
       </c>
-      <c r="B88" s="64" t="s">
+      <c r="B88" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="65" t="s">
+      <c r="C88" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="13">
+    <row r="89" spans="1:3" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="39">
         <v>37</v>
       </c>
-      <c r="B89" s="64" t="s">
+      <c r="B89" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="41" t="s">
         <v>86</v>
       </c>
     </row>
